--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.85012784480724</v>
+        <v>20.91697689900416</v>
       </c>
       <c r="C2">
-        <v>14.53237602382752</v>
+        <v>10.4276822383335</v>
       </c>
       <c r="D2">
-        <v>3.859503089461102</v>
+        <v>2.554539173214093</v>
       </c>
       <c r="E2">
-        <v>6.068930075214428</v>
+        <v>6.379769226243551</v>
       </c>
       <c r="F2">
-        <v>40.49194429472424</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>35.48723697913078</v>
       </c>
       <c r="I2">
-        <v>26.97462614221374</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.787716655148696</v>
+        <v>5.97834106896253</v>
       </c>
       <c r="K2">
-        <v>16.48569497413433</v>
+        <v>16.49684544724122</v>
       </c>
       <c r="L2">
-        <v>8.732697967420078</v>
+        <v>6.561173446758928</v>
       </c>
       <c r="M2">
-        <v>13.27717962795706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.24419829896311</v>
+      </c>
+      <c r="N2">
+        <v>15.05131726311871</v>
+      </c>
+      <c r="O2">
+        <v>26.88945741204704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.57607228237102</v>
+        <v>19.77062351035532</v>
       </c>
       <c r="C3">
-        <v>13.4811096367534</v>
+        <v>9.738398445412674</v>
       </c>
       <c r="D3">
-        <v>3.885552619152515</v>
+        <v>2.520261228892235</v>
       </c>
       <c r="E3">
-        <v>5.983675123790152</v>
+        <v>6.401177160892112</v>
       </c>
       <c r="F3">
-        <v>38.64696254165361</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>34.84430464702348</v>
       </c>
       <c r="I3">
-        <v>26.09562721541307</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.759606828175086</v>
+        <v>6.019721373306277</v>
       </c>
       <c r="K3">
-        <v>15.32850893225386</v>
+        <v>15.58577448677627</v>
       </c>
       <c r="L3">
-        <v>8.360221314110431</v>
+        <v>6.500961059310111</v>
       </c>
       <c r="M3">
-        <v>12.36817798886651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.82832808291331</v>
+      </c>
+      <c r="N3">
+        <v>15.28753490679861</v>
+      </c>
+      <c r="O3">
+        <v>26.4802920068424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7537372701489</v>
+        <v>19.04570199357645</v>
       </c>
       <c r="C4">
-        <v>12.80396122282521</v>
+        <v>9.293071961560601</v>
       </c>
       <c r="D4">
-        <v>3.902372598170673</v>
+        <v>2.499514266790488</v>
       </c>
       <c r="E4">
-        <v>5.934349978477212</v>
+        <v>6.415225833141408</v>
       </c>
       <c r="F4">
-        <v>37.50740676896351</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>34.4730278204489</v>
       </c>
       <c r="I4">
-        <v>25.56344088370197</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.745447370999455</v>
+        <v>6.045806329145447</v>
       </c>
       <c r="K4">
-        <v>14.58202183251539</v>
+        <v>15.0093529655834</v>
       </c>
       <c r="L4">
-        <v>8.130938149123025</v>
+        <v>6.466473674617239</v>
       </c>
       <c r="M4">
-        <v>11.8200308448576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.57386206153816</v>
+      </c>
+      <c r="N4">
+        <v>15.4360277652041</v>
+      </c>
+      <c r="O4">
+        <v>26.24815573143961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.40839683723762</v>
+        <v>18.74530353759899</v>
       </c>
       <c r="C5">
-        <v>12.51990769391129</v>
+        <v>9.105999609236735</v>
       </c>
       <c r="D5">
-        <v>3.90942055299447</v>
+        <v>2.491124377060404</v>
       </c>
       <c r="E5">
-        <v>5.914995153698749</v>
+        <v>6.42117562995186</v>
       </c>
       <c r="F5">
-        <v>37.04173010241121</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>34.32758029709645</v>
       </c>
       <c r="I5">
-        <v>25.34855093634866</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.740423892265874</v>
+        <v>6.056612057869726</v>
       </c>
       <c r="K5">
-        <v>14.26862749562621</v>
+        <v>14.77041653955946</v>
       </c>
       <c r="L5">
-        <v>8.037454773716419</v>
+        <v>6.453041471687314</v>
       </c>
       <c r="M5">
-        <v>11.65096240548765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.47051278496641</v>
+      </c>
+      <c r="N5">
+        <v>15.49742803190653</v>
+      </c>
+      <c r="O5">
+        <v>26.15826648282729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.35043086560179</v>
+        <v>18.69513173162251</v>
       </c>
       <c r="C6">
-        <v>12.47224688573696</v>
+        <v>9.074597256976206</v>
       </c>
       <c r="D6">
-        <v>3.910602184467808</v>
+        <v>2.489734852452129</v>
       </c>
       <c r="E6">
-        <v>5.911825911286638</v>
+        <v>6.422177102344221</v>
       </c>
       <c r="F6">
-        <v>36.96433960177832</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>34.30378037801713</v>
       </c>
       <c r="I6">
-        <v>25.31299114489845</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.739633904218587</v>
+        <v>6.058417122421995</v>
       </c>
       <c r="K6">
-        <v>14.216029066205</v>
+        <v>14.73050540640716</v>
       </c>
       <c r="L6">
-        <v>8.021932164497906</v>
+        <v>6.450848521221336</v>
       </c>
       <c r="M6">
-        <v>11.62280571264573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.45337657901039</v>
+      </c>
+      <c r="N6">
+        <v>15.50767771752178</v>
+      </c>
+      <c r="O6">
+        <v>26.14362191481837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74912152129713</v>
+        <v>19.04167045067595</v>
       </c>
       <c r="C7">
-        <v>12.80016340230178</v>
+        <v>9.290571752529104</v>
       </c>
       <c r="D7">
-        <v>3.902466882268234</v>
+        <v>2.499400869456974</v>
       </c>
       <c r="E7">
-        <v>5.934085952640248</v>
+        <v>6.41530516684554</v>
       </c>
       <c r="F7">
-        <v>37.50113116424941</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>34.47104265585517</v>
       </c>
       <c r="I7">
-        <v>25.56053465475345</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.74537664210048</v>
+        <v>6.045951339601094</v>
       </c>
       <c r="K7">
-        <v>14.57783270752415</v>
+        <v>15.00614658609829</v>
       </c>
       <c r="L7">
-        <v>8.129677455455084</v>
+        <v>6.46629001008558</v>
       </c>
       <c r="M7">
-        <v>11.81775643183387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.5724666757503</v>
+      </c>
+      <c r="N7">
+        <v>15.4368522083936</v>
+      </c>
+      <c r="O7">
+        <v>26.24692451949859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.41904887971144</v>
+        <v>20.52624821051094</v>
       </c>
       <c r="C8">
-        <v>14.17637974167099</v>
+        <v>10.19457808339438</v>
       </c>
       <c r="D8">
-        <v>3.868304720918202</v>
+        <v>2.542651129638678</v>
       </c>
       <c r="E8">
-        <v>6.03889836283425</v>
+        <v>6.386961431071393</v>
       </c>
       <c r="F8">
-        <v>39.85739962538461</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>35.26064934474284</v>
       </c>
       <c r="I8">
-        <v>26.67003296205421</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.777360690461213</v>
+        <v>5.992471893944717</v>
       </c>
       <c r="K8">
-        <v>16.09406946336916</v>
+        <v>16.18636814026252</v>
       </c>
       <c r="L8">
-        <v>8.604441658706847</v>
+        <v>6.539895293651599</v>
       </c>
       <c r="M8">
-        <v>12.96945903864449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.1006965013152</v>
+      </c>
+      <c r="N8">
+        <v>15.13206003167513</v>
+      </c>
+      <c r="O8">
+        <v>26.7443609596262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.38368172555604</v>
+        <v>23.26026266875473</v>
       </c>
       <c r="C9">
-        <v>16.63112650385735</v>
+        <v>11.79418077252986</v>
       </c>
       <c r="D9">
-        <v>3.808591817508887</v>
+        <v>2.630386550007847</v>
       </c>
       <c r="E9">
-        <v>6.269085836211207</v>
+        <v>6.338683535327963</v>
       </c>
       <c r="F9">
-        <v>44.41233124378113</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>36.99754141212496</v>
       </c>
       <c r="I9">
-        <v>28.90287588217227</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.866245275002567</v>
+        <v>5.892702284895309</v>
       </c>
       <c r="K9">
-        <v>18.78932829324511</v>
+        <v>18.35785388468116</v>
       </c>
       <c r="L9">
-        <v>9.527536078323493</v>
+        <v>6.70405238512887</v>
       </c>
       <c r="M9">
-        <v>15.0887124653863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.13853576317212</v>
+      </c>
+      <c r="N9">
+        <v>14.56087933459499</v>
+      </c>
+      <c r="O9">
+        <v>27.87517718180084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38460364718971</v>
+        <v>25.15151471257967</v>
       </c>
       <c r="C10">
-        <v>18.29702242317646</v>
+        <v>12.86750950285331</v>
       </c>
       <c r="D10">
-        <v>3.770365239138159</v>
+        <v>2.697482767318647</v>
       </c>
       <c r="E10">
-        <v>6.4542777626247</v>
+        <v>6.307879447673277</v>
       </c>
       <c r="F10">
-        <v>47.71009478315467</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>38.39143350911915</v>
       </c>
       <c r="I10">
-        <v>30.57735908377303</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.949825548725637</v>
+        <v>5.822106742999171</v>
       </c>
       <c r="K10">
-        <v>20.61121126501003</v>
+        <v>19.95657384182574</v>
       </c>
       <c r="L10">
-        <v>10.19802621980359</v>
+        <v>6.836906708957806</v>
       </c>
       <c r="M10">
-        <v>16.52268084860899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.89650038221055</v>
+      </c>
+      <c r="N10">
+        <v>14.15617108482746</v>
+      </c>
+      <c r="O10">
+        <v>28.80580633441947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.25936008402926</v>
+        <v>25.9854802633329</v>
       </c>
       <c r="C11">
-        <v>19.02781828769258</v>
+        <v>13.33461888347347</v>
       </c>
       <c r="D11">
-        <v>3.754537684074062</v>
+        <v>2.728800660792859</v>
       </c>
       <c r="E11">
-        <v>6.54229266129084</v>
+        <v>6.294937201612743</v>
       </c>
       <c r="F11">
-        <v>49.20023594493429</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>39.05184862076104</v>
       </c>
       <c r="I11">
-        <v>31.34724328223229</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.992382346815974</v>
+        <v>5.79048020185095</v>
       </c>
       <c r="K11">
-        <v>21.40846175808113</v>
+        <v>20.71382308528705</v>
       </c>
       <c r="L11">
-        <v>10.50123364825781</v>
+        <v>6.900047405717334</v>
       </c>
       <c r="M11">
-        <v>17.15041310318225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.23941862805931</v>
+      </c>
+      <c r="N11">
+        <v>13.97505041397089</v>
+      </c>
+      <c r="O11">
+        <v>29.25196575264309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.58578459505464</v>
+        <v>26.29747140096609</v>
       </c>
       <c r="C12">
-        <v>19.30093186801808</v>
+        <v>13.50854792321311</v>
       </c>
       <c r="D12">
-        <v>3.748803607234138</v>
+        <v>2.74079556066992</v>
       </c>
       <c r="E12">
-        <v>6.576191419266035</v>
+        <v>6.290196173653497</v>
       </c>
       <c r="F12">
-        <v>49.76326999644023</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>39.30578932944255</v>
       </c>
       <c r="I12">
-        <v>31.64008174035708</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.009202002706422</v>
+        <v>5.778565327851521</v>
       </c>
       <c r="K12">
-        <v>21.70608955751913</v>
+        <v>20.99568904592326</v>
       </c>
       <c r="L12">
-        <v>10.61581146722751</v>
+        <v>6.924350155866494</v>
       </c>
       <c r="M12">
-        <v>17.38478301004813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.36894702785894</v>
+      </c>
+      <c r="N12">
+        <v>13.90687523414722</v>
+      </c>
+      <c r="O12">
+        <v>29.42429333601799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.51569318638314</v>
+        <v>26.23044802345442</v>
       </c>
       <c r="C13">
-        <v>19.24226854469094</v>
+        <v>13.47121914210526</v>
       </c>
       <c r="D13">
-        <v>3.750026379329223</v>
+        <v>2.738205852841222</v>
       </c>
       <c r="E13">
-        <v>6.568864896985005</v>
+        <v>6.291210021394717</v>
       </c>
       <c r="F13">
-        <v>49.64206167120867</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>39.25092582612321</v>
       </c>
       <c r="I13">
-        <v>31.57695319082185</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.005547375054004</v>
+        <v>5.78112882498527</v>
       </c>
       <c r="K13">
-        <v>21.64217566237168</v>
+        <v>20.93519934623745</v>
       </c>
       <c r="L13">
-        <v>10.59114518572349</v>
+        <v>6.919098582947239</v>
       </c>
       <c r="M13">
-        <v>17.33445233965997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.34106603928448</v>
+      </c>
+      <c r="N13">
+        <v>13.92153994984649</v>
+      </c>
+      <c r="O13">
+        <v>29.38702766296175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.28631027244695</v>
+        <v>26.01122436178099</v>
       </c>
       <c r="C14">
-        <v>19.05035848611844</v>
+        <v>13.34898682571773</v>
       </c>
       <c r="D14">
-        <v>3.754060515454896</v>
+        <v>2.729784642314519</v>
       </c>
       <c r="E14">
-        <v>6.545069944806567</v>
+        <v>6.29454391188067</v>
       </c>
       <c r="F14">
-        <v>49.24658058025798</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>39.07266272414785</v>
       </c>
       <c r="I14">
-        <v>31.3713082618458</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.993751676339817</v>
+        <v>5.789498779916205</v>
       </c>
       <c r="K14">
-        <v>21.43303181957169</v>
+        <v>20.7371095364474</v>
       </c>
       <c r="L14">
-        <v>10.51066464717246</v>
+        <v>6.902038910417141</v>
       </c>
       <c r="M14">
-        <v>17.16976055103353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.25008182845829</v>
+      </c>
+      <c r="N14">
+        <v>13.96943345326688</v>
+      </c>
+      <c r="O14">
+        <v>29.26607497772151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1451867240017</v>
+        <v>25.87644700061438</v>
       </c>
       <c r="C15">
-        <v>18.93234461145519</v>
+        <v>13.27373388821233</v>
       </c>
       <c r="D15">
-        <v>3.75656647430498</v>
+        <v>2.724644725687106</v>
       </c>
       <c r="E15">
-        <v>6.530569906785284</v>
+        <v>6.296607035118142</v>
       </c>
       <c r="F15">
-        <v>49.00418213469994</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>38.96397599797303</v>
       </c>
       <c r="I15">
-        <v>31.2455189956557</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.986619833120818</v>
+        <v>5.794633344627925</v>
       </c>
       <c r="K15">
-        <v>21.30437689968611</v>
+        <v>20.61514134288211</v>
       </c>
       <c r="L15">
-        <v>10.46133771569484</v>
+        <v>6.891640647945348</v>
       </c>
       <c r="M15">
-        <v>17.06845355155635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.19430736948961</v>
+      </c>
+      <c r="N15">
+        <v>13.99882267276696</v>
+      </c>
+      <c r="O15">
+        <v>29.1924307734116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.32674516214754</v>
+        <v>25.0964796323155</v>
       </c>
       <c r="C16">
-        <v>18.24874111842112</v>
+        <v>12.83656434555444</v>
       </c>
       <c r="D16">
-        <v>3.771433877951863</v>
+        <v>2.695453819822336</v>
       </c>
       <c r="E16">
-        <v>6.4486038614984</v>
+        <v>6.308747287128281</v>
       </c>
       <c r="F16">
-        <v>47.61252221333464</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>38.34880913809801</v>
       </c>
       <c r="I16">
-        <v>30.52721886977326</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.947139963431925</v>
+        <v>5.824182697383775</v>
       </c>
       <c r="K16">
-        <v>20.5584961313379</v>
+        <v>19.90639446245232</v>
       </c>
       <c r="L16">
-        <v>10.17817565858629</v>
+        <v>6.832835040534814</v>
       </c>
       <c r="M16">
-        <v>16.48117859206504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.87404674778617</v>
+      </c>
+      <c r="N16">
+        <v>14.16806622671138</v>
+      </c>
+      <c r="O16">
+        <v>28.77711578323108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81575751766868</v>
+        <v>24.61121145865902</v>
       </c>
       <c r="C17">
-        <v>17.82262750311725</v>
+        <v>12.56301589349141</v>
       </c>
       <c r="D17">
-        <v>3.78097750778427</v>
+        <v>2.677764075561346</v>
       </c>
       <c r="E17">
-        <v>6.399303800638605</v>
+        <v>6.316473120922218</v>
       </c>
       <c r="F17">
-        <v>46.7563113721486</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>37.97821106393933</v>
       </c>
       <c r="I17">
-        <v>30.08872436850083</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.924117465683942</v>
+        <v>5.842429211355279</v>
       </c>
       <c r="K17">
-        <v>20.09302204255456</v>
+        <v>19.4627522831273</v>
       </c>
       <c r="L17">
-        <v>10.00400861261476</v>
+        <v>6.797454797695399</v>
       </c>
       <c r="M17">
-        <v>16.11473963542569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.6770492041435</v>
+      </c>
+      <c r="N17">
+        <v>14.27264264997424</v>
+      </c>
+      <c r="O17">
+        <v>28.52824134397083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51849388527322</v>
+        <v>24.32961402802194</v>
       </c>
       <c r="C18">
-        <v>17.5749766044818</v>
+        <v>12.40368128152057</v>
       </c>
       <c r="D18">
-        <v>3.786611341745372</v>
+        <v>2.667662864258078</v>
       </c>
       <c r="E18">
-        <v>6.371300671279611</v>
+        <v>6.321017186630158</v>
       </c>
       <c r="F18">
-        <v>46.26287839033932</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>37.76752569171563</v>
       </c>
       <c r="I18">
-        <v>29.83727012139799</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.911299050561186</v>
+        <v>5.852970595111919</v>
       </c>
       <c r="K18">
-        <v>19.82230829890246</v>
+        <v>19.20667347074389</v>
       </c>
       <c r="L18">
-        <v>9.903660028983422</v>
+        <v>6.777359304517681</v>
       </c>
       <c r="M18">
-        <v>15.9016462370963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.56356644746037</v>
+      </c>
+      <c r="N18">
+        <v>14.33307400926625</v>
+      </c>
+      <c r="O18">
+        <v>28.38723620725285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41726110832054</v>
+        <v>24.23384467294593</v>
       </c>
       <c r="C19">
-        <v>17.49067878946944</v>
+        <v>12.34938788118887</v>
       </c>
       <c r="D19">
-        <v>3.788542730745682</v>
+        <v>2.664254784760455</v>
       </c>
       <c r="E19">
-        <v>6.361879165878448</v>
+        <v>6.322572801203336</v>
       </c>
       <c r="F19">
-        <v>46.09564129726876</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>37.69661412994122</v>
       </c>
       <c r="I19">
-        <v>29.7522590463747</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.90703019320152</v>
+        <v>5.856547961815461</v>
       </c>
       <c r="K19">
-        <v>19.73012908839684</v>
+        <v>19.13066369554732</v>
       </c>
       <c r="L19">
-        <v>9.869653979035604</v>
+        <v>6.770598891140773</v>
       </c>
       <c r="M19">
-        <v>15.82909113210642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.52511508304419</v>
+      </c>
+      <c r="N19">
+        <v>14.35358398720531</v>
+      </c>
+      <c r="O19">
+        <v>28.33985922294659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.87049858257405</v>
+        <v>24.66312645451591</v>
       </c>
       <c r="C20">
-        <v>17.8682513352493</v>
+        <v>12.59234165378718</v>
       </c>
       <c r="D20">
-        <v>3.779946374491574</v>
+        <v>2.67963943165646</v>
       </c>
       <c r="E20">
-        <v>6.404515165021577</v>
+        <v>6.315640264546538</v>
       </c>
       <c r="F20">
-        <v>46.84755518259204</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>38.01740548680279</v>
       </c>
       <c r="I20">
-        <v>30.13532387151595</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.926524057189247</v>
+        <v>5.840482089985686</v>
       </c>
       <c r="K20">
-        <v>20.14287973645983</v>
+        <v>19.51031865346784</v>
       </c>
       <c r="L20">
-        <v>10.02256677140225</v>
+        <v>6.801194743149944</v>
       </c>
       <c r="M20">
-        <v>16.1539872162969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.69803850225975</v>
+      </c>
+      <c r="N20">
+        <v>14.26148128267732</v>
+      </c>
+      <c r="O20">
+        <v>28.55451221958014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.35381424241849</v>
+        <v>26.0757191224794</v>
       </c>
       <c r="C21">
-        <v>19.10682318047234</v>
+        <v>13.38496888417461</v>
       </c>
       <c r="D21">
-        <v>3.752868240297016</v>
+        <v>2.73225429695796</v>
       </c>
       <c r="E21">
-        <v>6.552043400679766</v>
+        <v>6.29356027509958</v>
       </c>
       <c r="F21">
-        <v>49.36277470634438</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>39.12491761117694</v>
       </c>
       <c r="I21">
-        <v>31.43167454066078</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.997196801339086</v>
+        <v>5.787038727902234</v>
       </c>
       <c r="K21">
-        <v>21.49457618523866</v>
+        <v>20.79542486960336</v>
       </c>
       <c r="L21">
-        <v>10.53430997093083</v>
+        <v>6.907039054613212</v>
       </c>
       <c r="M21">
-        <v>17.21822343799179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.27681534301029</v>
+      </c>
+      <c r="N21">
+        <v>13.95535494054986</v>
+      </c>
+      <c r="O21">
+        <v>29.30150924291347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.29526485409126</v>
+        <v>26.97672141387888</v>
       </c>
       <c r="C22">
-        <v>19.89533176743954</v>
+        <v>13.88581889554873</v>
       </c>
       <c r="D22">
-        <v>3.736704533744072</v>
+        <v>2.767442746241644</v>
       </c>
       <c r="E22">
-        <v>6.651797513784717</v>
+        <v>6.280065331792711</v>
       </c>
       <c r="F22">
-        <v>50.99951484388557</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>39.87126424642034</v>
       </c>
       <c r="I22">
-        <v>32.28659980180544</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.047519217222437</v>
+        <v>5.752463736742577</v>
       </c>
       <c r="K22">
-        <v>22.35322288258183</v>
+        <v>21.60689589600284</v>
       </c>
       <c r="L22">
-        <v>10.93396068274956</v>
+        <v>6.978506321319093</v>
       </c>
       <c r="M22">
-        <v>17.89441325935684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.65315802764793</v>
+      </c>
+      <c r="N22">
+        <v>13.75767413826949</v>
+      </c>
+      <c r="O22">
+        <v>29.809451303968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.79525578760961</v>
+        <v>26.49786781355429</v>
       </c>
       <c r="C23">
-        <v>19.47631247034346</v>
+        <v>13.6200464432131</v>
       </c>
       <c r="D23">
-        <v>3.745177857913754</v>
+        <v>2.748580957685411</v>
       </c>
       <c r="E23">
-        <v>6.598241139169031</v>
+        <v>6.287180007572337</v>
       </c>
       <c r="F23">
-        <v>50.12650741389296</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>39.47083526495908</v>
       </c>
       <c r="I23">
-        <v>31.82954736868297</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.020264254408298</v>
+        <v>5.770887815569661</v>
       </c>
       <c r="K23">
-        <v>21.8971182234513</v>
+        <v>21.17635250822883</v>
       </c>
       <c r="L23">
-        <v>10.70550929843072</v>
+        <v>6.94015159649407</v>
       </c>
       <c r="M23">
-        <v>17.53521673152473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.45248677088119</v>
+      </c>
+      <c r="N23">
+        <v>13.86296673911952</v>
+      </c>
+      <c r="O23">
+        <v>29.53651197622674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84576103806949</v>
+        <v>24.63966381329262</v>
       </c>
       <c r="C24">
-        <v>17.84763314446768</v>
+        <v>12.57908992523534</v>
       </c>
       <c r="D24">
-        <v>3.780412094311117</v>
+        <v>2.67879137024658</v>
       </c>
       <c r="E24">
-        <v>6.40215804972758</v>
+        <v>6.316016480457465</v>
       </c>
       <c r="F24">
-        <v>46.80630756270899</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>37.99967829127175</v>
       </c>
       <c r="I24">
-        <v>30.11425424503452</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.925434740536571</v>
+        <v>5.841362223368627</v>
       </c>
       <c r="K24">
-        <v>20.12034876833996</v>
+        <v>19.48882452322938</v>
       </c>
       <c r="L24">
-        <v>10.01417730675191</v>
+        <v>6.799503150711975</v>
       </c>
       <c r="M24">
-        <v>16.13625094588471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.68854994078504</v>
+      </c>
+      <c r="N24">
+        <v>14.26652637306529</v>
+      </c>
+      <c r="O24">
+        <v>28.54262869725972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.61371060331611</v>
+        <v>22.5407895838198</v>
       </c>
       <c r="C25">
-        <v>15.99209147555832</v>
+        <v>11.37963435723359</v>
       </c>
       <c r="D25">
-        <v>3.823854074571886</v>
+        <v>2.606256707504054</v>
       </c>
       <c r="E25">
-        <v>6.204073781212887</v>
+        <v>6.350942060902131</v>
       </c>
       <c r="F25">
-        <v>43.18843614975415</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>36.50719001503295</v>
       </c>
       <c r="I25">
-        <v>28.29294236366262</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.839168579253305</v>
+        <v>5.919186376236699</v>
       </c>
       <c r="K25">
-        <v>18.08886695760813</v>
+        <v>17.78661650645055</v>
       </c>
       <c r="L25">
-        <v>9.279040841454886</v>
+        <v>6.657504870109904</v>
       </c>
       <c r="M25">
-        <v>14.53765571585994</v>
+        <v>13.85820626737242</v>
+      </c>
+      <c r="N25">
+        <v>14.71268817723031</v>
+      </c>
+      <c r="O25">
+        <v>27.55209532525568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91697689900416</v>
+        <v>25.46308309909239</v>
       </c>
       <c r="C2">
-        <v>10.4276822383335</v>
+        <v>18.64710481138545</v>
       </c>
       <c r="D2">
-        <v>2.554539173214093</v>
+        <v>2.677231734490635</v>
       </c>
       <c r="E2">
-        <v>6.379769226243551</v>
+        <v>6.087705676423684</v>
       </c>
       <c r="F2">
-        <v>35.48723697913078</v>
+        <v>42.82785216214459</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.97834106896253</v>
+        <v>5.675665773846871</v>
       </c>
       <c r="K2">
-        <v>16.49684544724122</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.561173446758928</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.24419829896311</v>
+        <v>17.15906586938822</v>
       </c>
       <c r="N2">
-        <v>15.05131726311871</v>
+        <v>14.16629976503015</v>
       </c>
       <c r="O2">
-        <v>26.88945741204704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77062351035532</v>
+        <v>23.78857785096518</v>
       </c>
       <c r="C3">
-        <v>9.738398445412674</v>
+        <v>17.29890070265859</v>
       </c>
       <c r="D3">
-        <v>2.520261228892235</v>
+        <v>2.618813986782857</v>
       </c>
       <c r="E3">
-        <v>6.401177160892112</v>
+        <v>6.080676656572478</v>
       </c>
       <c r="F3">
-        <v>34.84430464702348</v>
+        <v>41.11981752918203</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.019721373306277</v>
+        <v>5.704011276824572</v>
       </c>
       <c r="K3">
-        <v>15.58577448677627</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.500961059310111</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.82832808291331</v>
+        <v>16.31957566477672</v>
       </c>
       <c r="N3">
-        <v>15.28753490679861</v>
+        <v>14.3690623938658</v>
       </c>
       <c r="O3">
-        <v>26.4802920068424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04570199357645</v>
+        <v>22.73096822329572</v>
       </c>
       <c r="C4">
-        <v>9.293071961560601</v>
+        <v>16.47275744827265</v>
       </c>
       <c r="D4">
-        <v>2.499514266790488</v>
+        <v>2.583581772772202</v>
       </c>
       <c r="E4">
-        <v>6.415225833141408</v>
+        <v>6.078770110518185</v>
       </c>
       <c r="F4">
-        <v>34.4730278204489</v>
+        <v>40.08605395256351</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.045806329145447</v>
+        <v>5.723699829789282</v>
       </c>
       <c r="K4">
-        <v>15.0093529655834</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.466473674617239</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.57386206153816</v>
+        <v>15.79843312807797</v>
       </c>
       <c r="N4">
-        <v>15.4360277652041</v>
+        <v>14.49841923639655</v>
       </c>
       <c r="O4">
-        <v>26.24815573143961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.74530353759899</v>
+        <v>22.29124028722469</v>
       </c>
       <c r="C5">
-        <v>9.105999609236735</v>
+        <v>16.13009336013435</v>
       </c>
       <c r="D5">
-        <v>2.491124377060404</v>
+        <v>2.569352088061412</v>
       </c>
       <c r="E5">
-        <v>6.42117562995186</v>
+        <v>6.07858338156703</v>
       </c>
       <c r="F5">
-        <v>34.32758029709645</v>
+        <v>39.66876054433121</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.056612057869726</v>
+        <v>5.732280453268462</v>
       </c>
       <c r="K5">
-        <v>14.77041653955946</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.453041471687314</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.47051278496641</v>
+        <v>15.5848283491782</v>
       </c>
       <c r="N5">
-        <v>15.49742803190653</v>
+        <v>14.55231840962446</v>
       </c>
       <c r="O5">
-        <v>26.15826648282729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.69513173162251</v>
+        <v>22.21770109620785</v>
       </c>
       <c r="C6">
-        <v>9.074597256976206</v>
+        <v>16.07272320195389</v>
       </c>
       <c r="D6">
-        <v>2.489734852452129</v>
+        <v>2.56699609139059</v>
       </c>
       <c r="E6">
-        <v>6.422177102344221</v>
+        <v>6.078587582806821</v>
       </c>
       <c r="F6">
-        <v>34.30378037801713</v>
+        <v>39.59971652213223</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.058417122421995</v>
+        <v>5.733738454040819</v>
       </c>
       <c r="K6">
-        <v>14.73050540640716</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.450848521221336</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.45337657901039</v>
+        <v>15.54929157094094</v>
       </c>
       <c r="N6">
-        <v>15.50767771752178</v>
+        <v>14.56133896578685</v>
       </c>
       <c r="O6">
-        <v>26.14362191481837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04167045067595</v>
+        <v>22.72507307232529</v>
       </c>
       <c r="C7">
-        <v>9.290571752529104</v>
+        <v>16.46816776065655</v>
       </c>
       <c r="D7">
-        <v>2.499400869456974</v>
+        <v>2.58338938943163</v>
       </c>
       <c r="E7">
-        <v>6.41530516684554</v>
+        <v>6.078765222477856</v>
       </c>
       <c r="F7">
-        <v>34.47104265585517</v>
+        <v>40.08040977921254</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.045951339601094</v>
+        <v>5.723813315674209</v>
       </c>
       <c r="K7">
-        <v>15.00614658609829</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.46629001008558</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.5724666757503</v>
+        <v>15.79555708302499</v>
       </c>
       <c r="N7">
-        <v>15.4368522083936</v>
+        <v>14.49914138414892</v>
       </c>
       <c r="O7">
-        <v>26.24692451949859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52624821051094</v>
+        <v>24.88689537365977</v>
       </c>
       <c r="C8">
-        <v>10.19457808339438</v>
+        <v>18.18979453534925</v>
       </c>
       <c r="D8">
-        <v>2.542651129638678</v>
+        <v>2.656936630661965</v>
       </c>
       <c r="E8">
-        <v>6.386961431071393</v>
+        <v>6.084772293135143</v>
       </c>
       <c r="F8">
-        <v>35.26064934474284</v>
+        <v>42.23591665428966</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.992471893944717</v>
+        <v>5.684954464282568</v>
       </c>
       <c r="K8">
-        <v>16.18636814026252</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.539895293651599</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.1006965013152</v>
+        <v>16.87089276359946</v>
       </c>
       <c r="N8">
-        <v>15.13206003167513</v>
+        <v>14.23517921770547</v>
       </c>
       <c r="O8">
-        <v>26.7443609596262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.26026266875473</v>
+        <v>29.11781626344327</v>
       </c>
       <c r="C9">
-        <v>11.79418077252986</v>
+        <v>21.3579252222382</v>
       </c>
       <c r="D9">
-        <v>2.630386550007847</v>
+        <v>2.807876539302543</v>
       </c>
       <c r="E9">
-        <v>6.338683535327963</v>
+        <v>6.116434207838141</v>
       </c>
       <c r="F9">
-        <v>36.99754141212496</v>
+        <v>46.57685800073777</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.892702284895309</v>
+        <v>5.627732193762721</v>
       </c>
       <c r="K9">
-        <v>18.35785388468116</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.70405238512887</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.13853576317212</v>
+        <v>18.92865046436217</v>
       </c>
       <c r="N9">
-        <v>14.56087933459499</v>
+        <v>13.75820447876679</v>
       </c>
       <c r="O9">
-        <v>27.87517718180084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.15151471257967</v>
+        <v>32.04054137467436</v>
       </c>
       <c r="C10">
-        <v>12.86750950285331</v>
+        <v>23.52705419003251</v>
       </c>
       <c r="D10">
-        <v>2.697482767318647</v>
+        <v>2.925563692780684</v>
       </c>
       <c r="E10">
-        <v>6.307879447673277</v>
+        <v>6.152996012519703</v>
       </c>
       <c r="F10">
-        <v>38.39143350911915</v>
+        <v>49.83722899667012</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.822106742999171</v>
+        <v>5.59860651564005</v>
       </c>
       <c r="K10">
-        <v>19.95657384182574</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.836906708957806</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.89650038221055</v>
+        <v>20.64734904293055</v>
       </c>
       <c r="N10">
-        <v>14.15617108482746</v>
+        <v>13.43631880837511</v>
       </c>
       <c r="O10">
-        <v>28.80580633441947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.9854802633329</v>
+        <v>33.3283624023487</v>
       </c>
       <c r="C11">
-        <v>13.33461888347347</v>
+        <v>24.48356770789656</v>
       </c>
       <c r="D11">
-        <v>2.728800660792859</v>
+        <v>2.981312172116836</v>
       </c>
       <c r="E11">
-        <v>6.294937201612743</v>
+        <v>6.172818344138105</v>
       </c>
       <c r="F11">
-        <v>39.05184862076104</v>
+        <v>51.33895969266048</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.79048020185095</v>
+        <v>5.588512718018302</v>
       </c>
       <c r="K11">
-        <v>20.71382308528705</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.900047405717334</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.23941862805931</v>
+        <v>21.47966569295659</v>
       </c>
       <c r="N11">
-        <v>13.97505041397089</v>
+        <v>13.2972394224348</v>
       </c>
       <c r="O11">
-        <v>29.25196575264309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.29747140096609</v>
+        <v>33.81053474164486</v>
       </c>
       <c r="C12">
-        <v>13.50854792321311</v>
+        <v>24.84184613538813</v>
       </c>
       <c r="D12">
-        <v>2.74079556066992</v>
+        <v>3.00281524386683</v>
       </c>
       <c r="E12">
-        <v>6.290196173653497</v>
+        <v>6.180812443153425</v>
       </c>
       <c r="F12">
-        <v>39.30578932944255</v>
+        <v>51.91076477715523</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.778565327851521</v>
+        <v>5.585178735986386</v>
       </c>
       <c r="K12">
-        <v>20.99568904592326</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.924350155866494</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.36894702785894</v>
+        <v>21.79102211970187</v>
       </c>
       <c r="N12">
-        <v>13.90687523414722</v>
+        <v>13.24575830551426</v>
       </c>
       <c r="O12">
-        <v>29.42429333601799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23044802345442</v>
+        <v>33.70692577531734</v>
       </c>
       <c r="C13">
-        <v>13.47121914210526</v>
+        <v>24.76485197227349</v>
       </c>
       <c r="D13">
-        <v>2.738205852841222</v>
+        <v>2.998165397933099</v>
       </c>
       <c r="E13">
-        <v>6.291210021394717</v>
+        <v>6.179068566770499</v>
       </c>
       <c r="F13">
-        <v>39.25092582612321</v>
+        <v>51.78746756336692</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.78112882498527</v>
+        <v>5.585874446424914</v>
       </c>
       <c r="K13">
-        <v>20.93519934623745</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.919098582947239</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.34106603928448</v>
+        <v>21.7241299034739</v>
       </c>
       <c r="N13">
-        <v>13.92153994984649</v>
+        <v>13.25679059920692</v>
       </c>
       <c r="O13">
-        <v>29.38702766296175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.01122436178099</v>
+        <v>33.36813796967677</v>
       </c>
       <c r="C14">
-        <v>13.34898682571773</v>
+        <v>24.51311966618477</v>
       </c>
       <c r="D14">
-        <v>2.729784642314519</v>
+        <v>2.983072907194523</v>
       </c>
       <c r="E14">
-        <v>6.29454391188067</v>
+        <v>6.173466065396243</v>
       </c>
       <c r="F14">
-        <v>39.07266272414785</v>
+        <v>51.38593632587914</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.789498779916205</v>
+        <v>5.588228426898202</v>
       </c>
       <c r="K14">
-        <v>20.7371095364474</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.902038910417141</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.25008182845829</v>
+        <v>21.5053556294803</v>
       </c>
       <c r="N14">
-        <v>13.96943345326688</v>
+        <v>13.29297944220341</v>
       </c>
       <c r="O14">
-        <v>29.26607497772151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.87644700061438</v>
+        <v>33.15992126076138</v>
       </c>
       <c r="C15">
-        <v>13.27373388821233</v>
+        <v>24.35842778502764</v>
       </c>
       <c r="D15">
-        <v>2.724644725687106</v>
+        <v>2.973881842569944</v>
       </c>
       <c r="E15">
-        <v>6.296607035118142</v>
+        <v>6.170098833441974</v>
       </c>
       <c r="F15">
-        <v>38.96397599797303</v>
+        <v>51.14041177697293</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.794633344627925</v>
+        <v>5.58973501186679</v>
       </c>
       <c r="K15">
-        <v>20.61514134288211</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.891640647945348</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.19430736948961</v>
+        <v>21.37086330509207</v>
       </c>
       <c r="N15">
-        <v>13.99882267276696</v>
+        <v>13.31530483193787</v>
       </c>
       <c r="O15">
-        <v>29.1924307734116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.0964796323155</v>
+        <v>31.95558041489193</v>
       </c>
       <c r="C16">
-        <v>12.83656434555444</v>
+        <v>23.46396928329366</v>
       </c>
       <c r="D16">
-        <v>2.695453819822336</v>
+        <v>2.921970965829431</v>
       </c>
       <c r="E16">
-        <v>6.308747287128281</v>
+        <v>6.151767163344077</v>
       </c>
       <c r="F16">
-        <v>38.34880913809801</v>
+        <v>49.73949621221339</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.824182697383775</v>
+        <v>5.599332510820718</v>
       </c>
       <c r="K16">
-        <v>19.90639446245232</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.832835040534814</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.87404674778617</v>
+        <v>20.5924000189504</v>
       </c>
       <c r="N16">
-        <v>14.16806622671138</v>
+        <v>13.44556616624925</v>
       </c>
       <c r="O16">
-        <v>28.77711578323108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.61121145865902</v>
+        <v>31.20639681440055</v>
       </c>
       <c r="C17">
-        <v>12.56301589349141</v>
+        <v>22.90777794746047</v>
       </c>
       <c r="D17">
-        <v>2.677764075561346</v>
+        <v>2.890740768168582</v>
       </c>
       <c r="E17">
-        <v>6.316473120922218</v>
+        <v>6.141357790938913</v>
       </c>
       <c r="F17">
-        <v>37.97821106393933</v>
+        <v>48.88510607901136</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.842429211355279</v>
+        <v>5.606051577067364</v>
       </c>
       <c r="K17">
-        <v>19.4627522831273</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.797454797695399</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.6770492041435</v>
+        <v>20.10763987668023</v>
       </c>
       <c r="N17">
-        <v>14.27264264997424</v>
+        <v>13.52744184793542</v>
       </c>
       <c r="O17">
-        <v>28.52824134397083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.32961402802194</v>
+        <v>30.77152210488395</v>
       </c>
       <c r="C18">
-        <v>12.40368128152057</v>
+        <v>22.58499688778714</v>
       </c>
       <c r="D18">
-        <v>2.667662864258078</v>
+        <v>2.872981057408892</v>
       </c>
       <c r="E18">
-        <v>6.321017186630158</v>
+        <v>6.135668913328344</v>
       </c>
       <c r="F18">
-        <v>37.76752569171563</v>
+        <v>48.39539314256594</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.852970595111919</v>
+        <v>5.610210894503902</v>
       </c>
       <c r="K18">
-        <v>19.20667347074389</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.777359304517681</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.56356644746037</v>
+        <v>19.82606475218632</v>
       </c>
       <c r="N18">
-        <v>14.33307400926625</v>
+        <v>13.57521694614406</v>
       </c>
       <c r="O18">
-        <v>28.38723620725285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.23384467294593</v>
+        <v>30.62358621771819</v>
       </c>
       <c r="C19">
-        <v>12.34938788118887</v>
+        <v>22.47520354509046</v>
       </c>
       <c r="D19">
-        <v>2.664254784760455</v>
+        <v>2.867000744727849</v>
       </c>
       <c r="E19">
-        <v>6.322572801203336</v>
+        <v>6.133793172955269</v>
       </c>
       <c r="F19">
-        <v>37.69661412994122</v>
+        <v>48.22986738763112</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.856547961815461</v>
+        <v>5.611668806216759</v>
       </c>
       <c r="K19">
-        <v>19.13066369554732</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.770598891140773</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.52511508304419</v>
+        <v>19.73024550151793</v>
       </c>
       <c r="N19">
-        <v>14.35358398720531</v>
+        <v>13.59150651828374</v>
       </c>
       <c r="O19">
-        <v>28.33985922294659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.66312645451591</v>
+        <v>31.28655558667952</v>
       </c>
       <c r="C20">
-        <v>12.59234165378718</v>
+        <v>22.96728018216094</v>
       </c>
       <c r="D20">
-        <v>2.67963943165646</v>
+        <v>2.894043761641581</v>
       </c>
       <c r="E20">
-        <v>6.315640264546538</v>
+        <v>6.142434814034792</v>
       </c>
       <c r="F20">
-        <v>38.01740548680279</v>
+        <v>48.9758776833683</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.840482089985686</v>
+        <v>5.605305587103046</v>
       </c>
       <c r="K20">
-        <v>19.51031865346784</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.801194743149944</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.69803850225975</v>
+        <v>20.15952608723898</v>
       </c>
       <c r="N20">
-        <v>14.26148128267732</v>
+        <v>13.51865457999236</v>
       </c>
       <c r="O20">
-        <v>28.55451221958014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.0757191224794</v>
+        <v>33.46779288079058</v>
       </c>
       <c r="C21">
-        <v>13.38496888417461</v>
+        <v>24.58716260403158</v>
       </c>
       <c r="D21">
-        <v>2.73225429695796</v>
+        <v>2.98749463201278</v>
       </c>
       <c r="E21">
-        <v>6.29356027509958</v>
+        <v>6.175098164065475</v>
       </c>
       <c r="F21">
-        <v>39.12491761117694</v>
+        <v>51.50378612553082</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.787038727902234</v>
+        <v>5.587523452665955</v>
       </c>
       <c r="K21">
-        <v>20.79542486960336</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.907039054613212</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.27681534301029</v>
+        <v>21.56971568170547</v>
       </c>
       <c r="N21">
-        <v>13.95535494054986</v>
+        <v>13.28231656035394</v>
       </c>
       <c r="O21">
-        <v>29.30150924291347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.97672141387888</v>
+        <v>34.86161738557939</v>
       </c>
       <c r="C22">
-        <v>13.88581889554873</v>
+        <v>25.6231754224755</v>
       </c>
       <c r="D22">
-        <v>2.767442746241644</v>
+        <v>3.050901617048913</v>
       </c>
       <c r="E22">
-        <v>6.280065331792711</v>
+        <v>6.199305631084413</v>
       </c>
       <c r="F22">
-        <v>39.87126424642034</v>
+        <v>53.17453815122168</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.752463736742577</v>
+        <v>5.578767934127103</v>
       </c>
       <c r="K22">
-        <v>21.60689589600284</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.978506321319093</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.65315802764793</v>
+        <v>22.4692695644531</v>
       </c>
       <c r="N22">
-        <v>13.75767413826949</v>
+        <v>13.13484714848762</v>
       </c>
       <c r="O22">
-        <v>29.809451303968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.49786781355429</v>
+        <v>34.12041960449429</v>
       </c>
       <c r="C23">
-        <v>13.6200464432131</v>
+        <v>25.07215378066115</v>
       </c>
       <c r="D23">
-        <v>2.748580957685411</v>
+        <v>3.016818638590048</v>
       </c>
       <c r="E23">
-        <v>6.287180007572337</v>
+        <v>6.186113194060729</v>
       </c>
       <c r="F23">
-        <v>39.47083526495908</v>
+        <v>52.28091786166969</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.770887815569661</v>
+        <v>5.583165896861315</v>
       </c>
       <c r="K23">
-        <v>21.17635250822883</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.94015159649407</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.45248677088119</v>
+        <v>21.99105244883597</v>
       </c>
       <c r="N23">
-        <v>13.86296673911952</v>
+        <v>13.21286396686802</v>
       </c>
       <c r="O23">
-        <v>29.53651197622674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.63966381329262</v>
+        <v>31.25032879719951</v>
       </c>
       <c r="C24">
-        <v>12.57908992523534</v>
+        <v>22.94038865645512</v>
       </c>
       <c r="D24">
-        <v>2.67879137024658</v>
+        <v>2.892549876477141</v>
       </c>
       <c r="E24">
-        <v>6.316016480457465</v>
+        <v>6.141946973263756</v>
       </c>
       <c r="F24">
-        <v>37.99967829127175</v>
+        <v>48.93483524059224</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.841362223368627</v>
+        <v>5.6056419283815</v>
       </c>
       <c r="K24">
-        <v>19.48882452322938</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.799503150711975</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.68854994078504</v>
+        <v>20.13607732767519</v>
       </c>
       <c r="N24">
-        <v>14.26652637306529</v>
+        <v>13.5226251214038</v>
       </c>
       <c r="O24">
-        <v>28.54262869725972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.5407895838198</v>
+        <v>28.00159497655631</v>
       </c>
       <c r="C25">
-        <v>11.37963435723359</v>
+        <v>20.52991835739621</v>
       </c>
       <c r="D25">
-        <v>2.606256707504054</v>
+        <v>2.766069863210336</v>
       </c>
       <c r="E25">
-        <v>6.350942060902131</v>
+        <v>6.105625891445824</v>
       </c>
       <c r="F25">
-        <v>36.50719001503295</v>
+        <v>45.3905838508231</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.919186376236699</v>
+        <v>5.641051536023691</v>
       </c>
       <c r="K25">
-        <v>17.78661650645055</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.657504870109904</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.85820626737242</v>
+        <v>18.3780114335179</v>
       </c>
       <c r="N25">
-        <v>14.71268817723031</v>
+        <v>13.8825512953935</v>
       </c>
       <c r="O25">
-        <v>27.55209532525568</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46308309909239</v>
+        <v>21.81010410189272</v>
       </c>
       <c r="C2">
-        <v>18.64710481138545</v>
+        <v>14.24849248060797</v>
       </c>
       <c r="D2">
-        <v>2.677231734490635</v>
+        <v>5.509729791891682</v>
       </c>
       <c r="E2">
-        <v>6.087705676423684</v>
+        <v>10.98168900857511</v>
       </c>
       <c r="F2">
-        <v>42.82785216214459</v>
+        <v>48.70175862158809</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.675665773846871</v>
+        <v>9.836636151400951</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.15906586938822</v>
+        <v>20.67638889649252</v>
       </c>
       <c r="N2">
-        <v>14.16629976503015</v>
+        <v>20.99764970910271</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.78857785096518</v>
+        <v>21.40109903940496</v>
       </c>
       <c r="C3">
-        <v>17.29890070265859</v>
+        <v>13.87932588755973</v>
       </c>
       <c r="D3">
-        <v>2.618813986782857</v>
+        <v>5.503787484904474</v>
       </c>
       <c r="E3">
-        <v>6.080676656572478</v>
+        <v>11.00212571772387</v>
       </c>
       <c r="F3">
-        <v>41.11981752918203</v>
+        <v>48.48214296658387</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.704011276824572</v>
+        <v>9.858482385446681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.31957566477672</v>
+        <v>20.57850992337493</v>
       </c>
       <c r="N3">
-        <v>14.3690623938658</v>
+        <v>21.05364744127042</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.73096822329572</v>
+        <v>21.15314531910602</v>
       </c>
       <c r="C4">
-        <v>16.47275744827265</v>
+        <v>13.65258548663741</v>
       </c>
       <c r="D4">
-        <v>2.583581772772202</v>
+        <v>5.500147929783818</v>
       </c>
       <c r="E4">
-        <v>6.078770110518185</v>
+        <v>11.01581593387948</v>
       </c>
       <c r="F4">
-        <v>40.08605395256351</v>
+        <v>48.35987857803795</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.723699829789282</v>
+        <v>9.872916111439675</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.79843312807797</v>
+        <v>20.52342341889544</v>
       </c>
       <c r="N4">
-        <v>14.49841923639655</v>
+        <v>21.09001153987289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.29124028722469</v>
+        <v>21.05304857057327</v>
       </c>
       <c r="C5">
-        <v>16.13009336013435</v>
+        <v>13.56032451679647</v>
       </c>
       <c r="D5">
-        <v>2.569352088061412</v>
+        <v>5.498666784904231</v>
       </c>
       <c r="E5">
-        <v>6.07858338156703</v>
+        <v>11.02168240543774</v>
       </c>
       <c r="F5">
-        <v>39.66876054433121</v>
+        <v>48.3132430087334</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.732280453268462</v>
+        <v>9.879054763923893</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.5848283491782</v>
+        <v>20.50225097985881</v>
       </c>
       <c r="N5">
-        <v>14.55231840962446</v>
+        <v>21.10532821433293</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21770109620785</v>
+        <v>21.03648904635406</v>
       </c>
       <c r="C6">
-        <v>16.07272320195389</v>
+        <v>13.54501760348462</v>
       </c>
       <c r="D6">
-        <v>2.56699609139059</v>
+        <v>5.498420955065243</v>
       </c>
       <c r="E6">
-        <v>6.078587582806821</v>
+        <v>11.02267391145042</v>
       </c>
       <c r="F6">
-        <v>39.59971652213223</v>
+        <v>48.30569239407041</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.733738454040819</v>
+        <v>9.880089600751681</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.54929157094094</v>
+        <v>20.49881278380541</v>
       </c>
       <c r="N6">
-        <v>14.56133896578685</v>
+        <v>21.10790160975601</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.72507307232529</v>
+        <v>21.15179135265497</v>
       </c>
       <c r="C7">
-        <v>16.46816776065655</v>
+        <v>13.65134045673052</v>
       </c>
       <c r="D7">
-        <v>2.58338938943163</v>
+        <v>5.500127946790833</v>
       </c>
       <c r="E7">
-        <v>6.078765222477856</v>
+        <v>11.01589388611142</v>
       </c>
       <c r="F7">
-        <v>40.08040977921254</v>
+        <v>48.35923669647582</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.723813315674209</v>
+        <v>9.872997859312866</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.79555708302499</v>
+        <v>20.52313269524832</v>
       </c>
       <c r="N7">
-        <v>14.49914138414892</v>
+        <v>21.09021608969863</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.88689537365977</v>
+        <v>21.66850823854836</v>
       </c>
       <c r="C8">
-        <v>18.18979453534925</v>
+        <v>14.12130996993027</v>
       </c>
       <c r="D8">
-        <v>2.656936630661965</v>
+        <v>5.507678841596474</v>
       </c>
       <c r="E8">
-        <v>6.084772293135143</v>
+        <v>10.98849882562413</v>
       </c>
       <c r="F8">
-        <v>42.23591665428966</v>
+        <v>48.6234402689394</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.684954464282568</v>
+        <v>9.843957196407263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.87089276359946</v>
+        <v>20.64160995037734</v>
       </c>
       <c r="N8">
-        <v>14.23517921770547</v>
+        <v>21.01654639423714</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11781626344327</v>
+        <v>22.70054779713384</v>
       </c>
       <c r="C9">
-        <v>21.3579252222382</v>
+        <v>15.03584260755807</v>
       </c>
       <c r="D9">
-        <v>2.807876539302543</v>
+        <v>5.522570844890966</v>
       </c>
       <c r="E9">
-        <v>6.116434207838141</v>
+        <v>10.94381942191714</v>
       </c>
       <c r="F9">
-        <v>46.57685800073777</v>
+        <v>49.24006855333496</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.627732193762721</v>
+        <v>9.795089323030574</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.92865046436217</v>
+        <v>20.91294263563611</v>
       </c>
       <c r="N9">
-        <v>13.75820447876679</v>
+        <v>20.88780921635381</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04054137467436</v>
+        <v>23.46174464826234</v>
       </c>
       <c r="C10">
-        <v>23.52705419003251</v>
+        <v>15.69523779890631</v>
       </c>
       <c r="D10">
-        <v>2.925563692780684</v>
+        <v>5.533582620902671</v>
       </c>
       <c r="E10">
-        <v>6.152996012519703</v>
+        <v>10.91648042150866</v>
       </c>
       <c r="F10">
-        <v>49.83722899667012</v>
+        <v>49.75114427578126</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.59860651564005</v>
+        <v>9.764095036284065</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.64734904293055</v>
+        <v>21.13492838551378</v>
       </c>
       <c r="N10">
-        <v>13.43631880837511</v>
+        <v>20.8028259483961</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.3283624023487</v>
+        <v>23.80695632005099</v>
       </c>
       <c r="C11">
-        <v>24.48356770789656</v>
+        <v>15.99093408569718</v>
       </c>
       <c r="D11">
-        <v>2.981312172116836</v>
+        <v>5.538611696734836</v>
       </c>
       <c r="E11">
-        <v>6.172818344138105</v>
+        <v>10.90522926210824</v>
       </c>
       <c r="F11">
-        <v>51.33895969266048</v>
+        <v>49.99572949702041</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.588512718018302</v>
+        <v>9.75105730993824</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.47966569295659</v>
+        <v>21.24055631831302</v>
       </c>
       <c r="N11">
-        <v>13.2972394224348</v>
+        <v>20.76625251031169</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.81053474164486</v>
+        <v>23.93739063236699</v>
       </c>
       <c r="C12">
-        <v>24.84184613538813</v>
+        <v>16.10217564245128</v>
       </c>
       <c r="D12">
-        <v>3.00281524386683</v>
+        <v>5.540519244546317</v>
       </c>
       <c r="E12">
-        <v>6.180812443153425</v>
+        <v>10.90113877868098</v>
       </c>
       <c r="F12">
-        <v>51.91076477715523</v>
+        <v>50.09003683200211</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.585178735986386</v>
+        <v>9.746272678379215</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.79102211970187</v>
+        <v>21.28119758785803</v>
       </c>
       <c r="N12">
-        <v>13.24575830551426</v>
+        <v>20.75270346894305</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.70692577531734</v>
+        <v>23.9093142770461</v>
       </c>
       <c r="C13">
-        <v>24.76485197227349</v>
+        <v>16.07825213671297</v>
       </c>
       <c r="D13">
-        <v>2.998165397933099</v>
+        <v>5.540108275200683</v>
       </c>
       <c r="E13">
-        <v>6.179068566770499</v>
+        <v>10.90201217898588</v>
       </c>
       <c r="F13">
-        <v>51.78746756336692</v>
+        <v>50.06965182347029</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.585874446424914</v>
+        <v>9.747296356306641</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.7241299034739</v>
+        <v>21.27241662114581</v>
       </c>
       <c r="N13">
-        <v>13.25679059920692</v>
+        <v>20.75560812173829</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36813796967677</v>
+        <v>23.81769380172192</v>
       </c>
       <c r="C14">
-        <v>24.51311966618477</v>
+        <v>16.00010131612775</v>
       </c>
       <c r="D14">
-        <v>2.983072907194523</v>
+        <v>5.538768567034034</v>
       </c>
       <c r="E14">
-        <v>6.173466065396243</v>
+        <v>10.90488932900062</v>
       </c>
       <c r="F14">
-        <v>51.38593632587914</v>
+        <v>50.0034546877974</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.588228426898202</v>
+        <v>9.750660620787368</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.5053556294803</v>
+        <v>21.24388717986004</v>
       </c>
       <c r="N14">
-        <v>13.29297944220341</v>
+        <v>20.7651317960729</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15992126076138</v>
+        <v>23.76153190371534</v>
       </c>
       <c r="C15">
-        <v>24.35842778502764</v>
+        <v>15.95213296621741</v>
       </c>
       <c r="D15">
-        <v>2.973881842569944</v>
+        <v>5.537948375891625</v>
       </c>
       <c r="E15">
-        <v>6.170098833441974</v>
+        <v>10.90667380528013</v>
       </c>
       <c r="F15">
-        <v>51.14041177697293</v>
+        <v>49.96312531609577</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.58973501186679</v>
+        <v>9.752741180412405</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.37086330509207</v>
+        <v>21.22649493015234</v>
       </c>
       <c r="N15">
-        <v>13.31530483193787</v>
+        <v>20.77100447684615</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.95558041489193</v>
+        <v>23.43915102273006</v>
       </c>
       <c r="C16">
-        <v>23.46396928329366</v>
+        <v>15.67581713666253</v>
       </c>
       <c r="D16">
-        <v>2.921970965829431</v>
+        <v>5.533254382552458</v>
       </c>
       <c r="E16">
-        <v>6.151767163344077</v>
+        <v>10.91723953338468</v>
       </c>
       <c r="F16">
-        <v>49.73949621221339</v>
+        <v>49.73539915179212</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.599332510820718</v>
+        <v>9.764968429591725</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.5924000189504</v>
+        <v>21.12811665751051</v>
       </c>
       <c r="N16">
-        <v>13.44556616624925</v>
+        <v>20.80525813029793</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.20639681440055</v>
+        <v>23.24100938978483</v>
       </c>
       <c r="C17">
-        <v>22.90777794746047</v>
+        <v>15.50512615645318</v>
       </c>
       <c r="D17">
-        <v>2.890740768168582</v>
+        <v>5.53038004656355</v>
       </c>
       <c r="E17">
-        <v>6.141357790938913</v>
+        <v>10.92402462363378</v>
       </c>
       <c r="F17">
-        <v>48.88510607901136</v>
+        <v>49.59875906442988</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.606051577067364</v>
+        <v>9.772741239071797</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.10763987668023</v>
+        <v>21.06893666852652</v>
       </c>
       <c r="N17">
-        <v>13.52744184793542</v>
+        <v>20.82680627882781</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.77152210488395</v>
+        <v>23.12695156198499</v>
       </c>
       <c r="C18">
-        <v>22.58499688778714</v>
+        <v>15.40655418597589</v>
       </c>
       <c r="D18">
-        <v>2.872981057408892</v>
+        <v>5.52872864633881</v>
       </c>
       <c r="E18">
-        <v>6.135668913328344</v>
+        <v>10.9280388350661</v>
       </c>
       <c r="F18">
-        <v>48.39539314256594</v>
+        <v>49.52130895741067</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.610210894503902</v>
+        <v>9.777311900359711</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.82606475218632</v>
+        <v>21.03533678495349</v>
       </c>
       <c r="N18">
-        <v>13.57521694614406</v>
+        <v>20.83939649931422</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.62358621771819</v>
+        <v>23.0883220307389</v>
       </c>
       <c r="C19">
-        <v>22.47520354509046</v>
+        <v>15.37311534036566</v>
       </c>
       <c r="D19">
-        <v>2.867000744727849</v>
+        <v>5.528169817750749</v>
       </c>
       <c r="E19">
-        <v>6.133793172955269</v>
+        <v>10.92941715840659</v>
       </c>
       <c r="F19">
-        <v>48.22986738763112</v>
+        <v>49.49528325618235</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.611668806216759</v>
+        <v>9.778876619978702</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.73024550151793</v>
+        <v>21.02403658434157</v>
       </c>
       <c r="N19">
-        <v>13.59150651828374</v>
+        <v>20.84369302854667</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.28655558667952</v>
+        <v>23.26211244231243</v>
       </c>
       <c r="C20">
-        <v>22.96728018216094</v>
+        <v>15.52333827820304</v>
       </c>
       <c r="D20">
-        <v>2.894043761641581</v>
+        <v>5.530685831726959</v>
       </c>
       <c r="E20">
-        <v>6.142434814034792</v>
+        <v>10.9232907910864</v>
       </c>
       <c r="F20">
-        <v>48.9758776833683</v>
+        <v>49.61318683560546</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.605305587103046</v>
+        <v>9.771903467606309</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.15952608723898</v>
+        <v>21.07519123957959</v>
       </c>
       <c r="N20">
-        <v>13.51865457999236</v>
+        <v>20.82449212175531</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.46779288079058</v>
+        <v>23.84461388456661</v>
       </c>
       <c r="C21">
-        <v>24.58716260403158</v>
+        <v>16.02307687725687</v>
       </c>
       <c r="D21">
-        <v>2.98749463201278</v>
+        <v>5.539161983975621</v>
       </c>
       <c r="E21">
-        <v>6.175098164065475</v>
+        <v>10.90403962727826</v>
       </c>
       <c r="F21">
-        <v>51.50378612553082</v>
+        <v>50.02285299637189</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.587523452665955</v>
+        <v>9.749668318287478</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.56971568170547</v>
+        <v>21.25224974863941</v>
       </c>
       <c r="N21">
-        <v>13.28231656035394</v>
+        <v>20.76232630103934</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86161738557939</v>
+        <v>24.22356383586934</v>
       </c>
       <c r="C22">
-        <v>25.6231754224755</v>
+        <v>16.34536877018077</v>
       </c>
       <c r="D22">
-        <v>3.050901617048913</v>
+        <v>5.544720120600739</v>
       </c>
       <c r="E22">
-        <v>6.199305631084413</v>
+        <v>10.89244909323283</v>
       </c>
       <c r="F22">
-        <v>53.17453815122168</v>
+        <v>50.30040776146078</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.578767934127103</v>
+        <v>9.736024999040371</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.4692695644531</v>
+        <v>21.37169856762194</v>
       </c>
       <c r="N22">
-        <v>13.13484714848762</v>
+        <v>20.72344933794138</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.12041960449429</v>
+        <v>24.02151473150101</v>
       </c>
       <c r="C23">
-        <v>25.07215378066115</v>
+        <v>16.17378720003482</v>
       </c>
       <c r="D23">
-        <v>3.016818638590048</v>
+        <v>5.541751845905027</v>
       </c>
       <c r="E23">
-        <v>6.186113194060729</v>
+        <v>10.89854461082573</v>
       </c>
       <c r="F23">
-        <v>52.28091786166969</v>
+        <v>50.15139125677268</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.583165896861315</v>
+        <v>9.743225450514403</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.99105244883597</v>
+        <v>21.30761392162664</v>
       </c>
       <c r="N23">
-        <v>13.21286396686802</v>
+        <v>20.74403819446995</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.25032879719951</v>
+        <v>23.252572188941</v>
       </c>
       <c r="C24">
-        <v>22.94038865645512</v>
+        <v>15.51510593763762</v>
       </c>
       <c r="D24">
-        <v>2.892549876477141</v>
+        <v>5.530547582870415</v>
       </c>
       <c r="E24">
-        <v>6.141946973263756</v>
+        <v>10.92362220362124</v>
       </c>
       <c r="F24">
-        <v>48.93483524059224</v>
+        <v>49.60666059118471</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.6056419283815</v>
+        <v>9.772281906457913</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.13607732767519</v>
+        <v>21.0723622270214</v>
       </c>
       <c r="N24">
-        <v>13.5226251214038</v>
+        <v>20.82553772332906</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.00159497655631</v>
+        <v>22.4202342129273</v>
       </c>
       <c r="C25">
-        <v>20.52991835739621</v>
+        <v>14.7900735140774</v>
       </c>
       <c r="D25">
-        <v>2.766069863210336</v>
+        <v>5.518531146329877</v>
       </c>
       <c r="E25">
-        <v>6.105625891445824</v>
+        <v>10.95494097650194</v>
       </c>
       <c r="F25">
-        <v>45.3905838508231</v>
+        <v>49.06289827814515</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.641051536023691</v>
+        <v>9.807446087105982</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.3780114335179</v>
+        <v>20.8354758208491</v>
       </c>
       <c r="N25">
-        <v>13.8825512953935</v>
+        <v>20.92095114036796</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.81010410189272</v>
+        <v>25.46308309909245</v>
       </c>
       <c r="C2">
-        <v>14.24849248060797</v>
+        <v>18.64710481138552</v>
       </c>
       <c r="D2">
-        <v>5.509729791891682</v>
+        <v>2.677231734490772</v>
       </c>
       <c r="E2">
-        <v>10.98168900857511</v>
+        <v>6.087705676423799</v>
       </c>
       <c r="F2">
-        <v>48.70175862158809</v>
+        <v>42.82785216214453</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.836636151400951</v>
+        <v>5.675665773846959</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.67638889649252</v>
+        <v>17.15906586938822</v>
       </c>
       <c r="N2">
-        <v>20.99764970910271</v>
+        <v>14.16629976503013</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.40109903940496</v>
+        <v>23.78857785096521</v>
       </c>
       <c r="C3">
-        <v>13.87932588755973</v>
+        <v>17.29890070265849</v>
       </c>
       <c r="D3">
-        <v>5.503787484904474</v>
+        <v>2.618813986782856</v>
       </c>
       <c r="E3">
-        <v>11.00212571772387</v>
+        <v>6.080676656572291</v>
       </c>
       <c r="F3">
-        <v>48.48214296658387</v>
+        <v>41.11981752918229</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.858482385446681</v>
+        <v>5.704011276824559</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.57850992337493</v>
+        <v>16.31957566477675</v>
       </c>
       <c r="N3">
-        <v>21.05364744127042</v>
+        <v>14.36906239386587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.15314531910602</v>
+        <v>22.73096822329572</v>
       </c>
       <c r="C4">
-        <v>13.65258548663741</v>
+        <v>16.47275744827267</v>
       </c>
       <c r="D4">
-        <v>5.500147929783818</v>
+        <v>2.583581772772269</v>
       </c>
       <c r="E4">
-        <v>11.01581593387948</v>
+        <v>6.078770110518132</v>
       </c>
       <c r="F4">
-        <v>48.35987857803795</v>
+        <v>40.08605395256335</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.872916111439675</v>
+        <v>5.723699829789283</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.52342341889544</v>
+        <v>15.79843312807792</v>
       </c>
       <c r="N4">
-        <v>21.09001153987289</v>
+        <v>14.49841923639643</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05304857057327</v>
+        <v>22.29124028722469</v>
       </c>
       <c r="C5">
-        <v>13.56032451679647</v>
+        <v>16.13009336013433</v>
       </c>
       <c r="D5">
-        <v>5.498666784904231</v>
+        <v>2.569352088061009</v>
       </c>
       <c r="E5">
-        <v>11.02168240543774</v>
+        <v>6.078583381566978</v>
       </c>
       <c r="F5">
-        <v>48.3132430087334</v>
+        <v>39.66876054433116</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.879054763923893</v>
+        <v>5.732280453268522</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.50225097985881</v>
+        <v>15.58482834917818</v>
       </c>
       <c r="N5">
-        <v>21.10532821433293</v>
+        <v>14.55231840962449</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.03648904635406</v>
+        <v>22.21770109620783</v>
       </c>
       <c r="C6">
-        <v>13.54501760348462</v>
+        <v>16.07272320195389</v>
       </c>
       <c r="D6">
-        <v>5.498420955065243</v>
+        <v>2.56699609139079</v>
       </c>
       <c r="E6">
-        <v>11.02267391145042</v>
+        <v>6.078587582806948</v>
       </c>
       <c r="F6">
-        <v>48.30569239407041</v>
+        <v>39.59971652213201</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.880089600751681</v>
+        <v>5.733738454040816</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.49881278380541</v>
+        <v>15.54929157094091</v>
       </c>
       <c r="N6">
-        <v>21.10790160975601</v>
+        <v>14.56133896578669</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.15179135265497</v>
+        <v>22.72507307232528</v>
       </c>
       <c r="C7">
-        <v>13.65134045673052</v>
+        <v>16.46816776065655</v>
       </c>
       <c r="D7">
-        <v>5.500127946790833</v>
+        <v>2.58338938943163</v>
       </c>
       <c r="E7">
-        <v>11.01589388611142</v>
+        <v>6.07876522247786</v>
       </c>
       <c r="F7">
-        <v>48.35923669647582</v>
+        <v>40.0804097792125</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.872997859312866</v>
+        <v>5.723813315674209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.52313269524832</v>
+        <v>15.79555708302498</v>
       </c>
       <c r="N7">
-        <v>21.09021608969863</v>
+        <v>14.49914138414891</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.66850823854836</v>
+        <v>24.88689537365979</v>
       </c>
       <c r="C8">
-        <v>14.12130996993027</v>
+        <v>18.18979453534922</v>
       </c>
       <c r="D8">
-        <v>5.507678841596474</v>
+        <v>2.656936630662165</v>
       </c>
       <c r="E8">
-        <v>10.98849882562413</v>
+        <v>6.08477229313509</v>
       </c>
       <c r="F8">
-        <v>48.6234402689394</v>
+        <v>42.2359166542897</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.843957196407263</v>
+        <v>5.684954464282424</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.64160995037734</v>
+        <v>16.87089276359944</v>
       </c>
       <c r="N8">
-        <v>21.01654639423714</v>
+        <v>14.23517921770539</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.70054779713384</v>
+        <v>29.11781626344321</v>
       </c>
       <c r="C9">
-        <v>15.03584260755807</v>
+        <v>21.3579252222383</v>
       </c>
       <c r="D9">
-        <v>5.522570844890966</v>
+        <v>2.807876539302814</v>
       </c>
       <c r="E9">
-        <v>10.94381942191714</v>
+        <v>6.11643420783829</v>
       </c>
       <c r="F9">
-        <v>49.24006855333496</v>
+        <v>46.57685800073777</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.795089323030574</v>
+        <v>5.627732193762755</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.91294263563611</v>
+        <v>18.92865046436217</v>
       </c>
       <c r="N9">
-        <v>20.88780921635381</v>
+        <v>13.7582044787669</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.46174464826234</v>
+        <v>32.04054137467437</v>
       </c>
       <c r="C10">
-        <v>15.69523779890631</v>
+        <v>23.52705419003253</v>
       </c>
       <c r="D10">
-        <v>5.533582620902671</v>
+        <v>2.92556369278055</v>
       </c>
       <c r="E10">
-        <v>10.91648042150866</v>
+        <v>6.152996012519759</v>
       </c>
       <c r="F10">
-        <v>49.75114427578126</v>
+        <v>49.83722899667024</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.764095036284065</v>
+        <v>5.598606515640103</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.13492838551378</v>
+        <v>20.64734904293054</v>
       </c>
       <c r="N10">
-        <v>20.8028259483961</v>
+        <v>13.43631880837522</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.80695632005099</v>
+        <v>33.32836240234878</v>
       </c>
       <c r="C11">
-        <v>15.99093408569718</v>
+        <v>24.48356770789655</v>
       </c>
       <c r="D11">
-        <v>5.538611696734836</v>
+        <v>2.981312172116839</v>
       </c>
       <c r="E11">
-        <v>10.90522926210824</v>
+        <v>6.172818344138103</v>
       </c>
       <c r="F11">
-        <v>49.99572949702041</v>
+        <v>51.33895969266051</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.75105730993824</v>
+        <v>5.588512718018306</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.24055631831302</v>
+        <v>21.47966569295664</v>
       </c>
       <c r="N11">
-        <v>20.76625251031169</v>
+        <v>13.29723942243473</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.93739063236699</v>
+        <v>33.81053474164494</v>
       </c>
       <c r="C12">
-        <v>16.10217564245128</v>
+        <v>24.84184613538817</v>
       </c>
       <c r="D12">
-        <v>5.540519244546317</v>
+        <v>3.002815243866696</v>
       </c>
       <c r="E12">
-        <v>10.90113877868098</v>
+        <v>6.180812443153473</v>
       </c>
       <c r="F12">
-        <v>50.09003683200211</v>
+        <v>51.91076477715528</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.746272678379215</v>
+        <v>5.585178735986352</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.28119758785803</v>
+        <v>21.79102211970192</v>
       </c>
       <c r="N12">
-        <v>20.75270346894305</v>
+        <v>13.24575830551425</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.9093142770461</v>
+        <v>33.70692577531728</v>
       </c>
       <c r="C13">
-        <v>16.07825213671297</v>
+        <v>24.76485197227344</v>
       </c>
       <c r="D13">
-        <v>5.540108275200683</v>
+        <v>2.998165397933096</v>
       </c>
       <c r="E13">
-        <v>10.90201217898588</v>
+        <v>6.179068566770455</v>
       </c>
       <c r="F13">
-        <v>50.06965182347029</v>
+        <v>51.78746756336699</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.747296356306641</v>
+        <v>5.585874446424908</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.27241662114581</v>
+        <v>21.72412990347389</v>
       </c>
       <c r="N13">
-        <v>20.75560812173829</v>
+        <v>13.25679059920691</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.81769380172192</v>
+        <v>33.36813796967679</v>
       </c>
       <c r="C14">
-        <v>16.00010131612775</v>
+        <v>24.51311966618485</v>
       </c>
       <c r="D14">
-        <v>5.538768567034034</v>
+        <v>2.983072907194388</v>
       </c>
       <c r="E14">
-        <v>10.90488932900062</v>
+        <v>6.173466065396236</v>
       </c>
       <c r="F14">
-        <v>50.0034546877974</v>
+        <v>51.38593632587919</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.750660620787368</v>
+        <v>5.588228426898254</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.24388717986004</v>
+        <v>21.50535562948033</v>
       </c>
       <c r="N14">
-        <v>20.7651317960729</v>
+        <v>13.29297944220343</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76153190371534</v>
+        <v>33.15992126076128</v>
       </c>
       <c r="C15">
-        <v>15.95213296621741</v>
+        <v>24.35842778502748</v>
       </c>
       <c r="D15">
-        <v>5.537948375891625</v>
+        <v>2.973881842569945</v>
       </c>
       <c r="E15">
-        <v>10.90667380528013</v>
+        <v>6.17009883344199</v>
       </c>
       <c r="F15">
-        <v>49.96312531609577</v>
+        <v>51.14041177697287</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.752741180412405</v>
+        <v>5.589735011866854</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.22649493015234</v>
+        <v>21.37086330509199</v>
       </c>
       <c r="N15">
-        <v>20.77100447684615</v>
+        <v>13.31530483193791</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.43915102273006</v>
+        <v>31.95558041489195</v>
       </c>
       <c r="C16">
-        <v>15.67581713666253</v>
+        <v>23.46396928329368</v>
       </c>
       <c r="D16">
-        <v>5.533254382552458</v>
+        <v>2.92197096582943</v>
       </c>
       <c r="E16">
-        <v>10.91723953338468</v>
+        <v>6.151767163344124</v>
       </c>
       <c r="F16">
-        <v>49.73539915179212</v>
+        <v>49.73949621221336</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.764968429591725</v>
+        <v>5.599332510820707</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.12811665751051</v>
+        <v>20.5924000189504</v>
       </c>
       <c r="N16">
-        <v>20.80525813029793</v>
+        <v>13.44556616624921</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.24100938978483</v>
+        <v>31.20639681440063</v>
       </c>
       <c r="C17">
-        <v>15.50512615645318</v>
+        <v>22.90777794746051</v>
       </c>
       <c r="D17">
-        <v>5.53038004656355</v>
+        <v>2.890740768168378</v>
       </c>
       <c r="E17">
-        <v>10.92402462363378</v>
+        <v>6.141357790938824</v>
       </c>
       <c r="F17">
-        <v>49.59875906442988</v>
+        <v>48.88510607901145</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.772741239071797</v>
+        <v>5.60605157706732</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.06893666852652</v>
+        <v>20.10763987668032</v>
       </c>
       <c r="N17">
-        <v>20.82680627882781</v>
+        <v>13.52744184793542</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.12695156198499</v>
+        <v>30.77152210488396</v>
       </c>
       <c r="C18">
-        <v>15.40655418597589</v>
+        <v>22.58499688778719</v>
       </c>
       <c r="D18">
-        <v>5.52872864633881</v>
+        <v>2.872981057408757</v>
       </c>
       <c r="E18">
-        <v>10.9280388350661</v>
+        <v>6.135668913328192</v>
       </c>
       <c r="F18">
-        <v>49.52130895741067</v>
+        <v>48.39539314256588</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.777311900359711</v>
+        <v>5.610210894503882</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.03533678495349</v>
+        <v>19.82606475218639</v>
       </c>
       <c r="N18">
-        <v>20.83939649931422</v>
+        <v>13.57521694614404</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.0883220307389</v>
+        <v>30.6235862177181</v>
       </c>
       <c r="C19">
-        <v>15.37311534036566</v>
+        <v>22.47520354509046</v>
       </c>
       <c r="D19">
-        <v>5.528169817750749</v>
+        <v>2.86700074472758</v>
       </c>
       <c r="E19">
-        <v>10.92941715840659</v>
+        <v>6.133793172955211</v>
       </c>
       <c r="F19">
-        <v>49.49528325618235</v>
+        <v>48.22986738763107</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.778876619978702</v>
+        <v>5.61166880621677</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.02403658434157</v>
+        <v>19.73024550151786</v>
       </c>
       <c r="N19">
-        <v>20.84369302854667</v>
+        <v>13.59150651828383</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.26211244231243</v>
+        <v>31.28655558667952</v>
       </c>
       <c r="C20">
-        <v>15.52333827820304</v>
+        <v>22.96728018216091</v>
       </c>
       <c r="D20">
-        <v>5.530685831726959</v>
+        <v>2.894043761641581</v>
       </c>
       <c r="E20">
-        <v>10.9232907910864</v>
+        <v>6.142434814034681</v>
       </c>
       <c r="F20">
-        <v>49.61318683560546</v>
+        <v>48.97587768336839</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.771903467606309</v>
+        <v>5.605305587102995</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.07519123957959</v>
+        <v>20.15952608723898</v>
       </c>
       <c r="N20">
-        <v>20.82449212175531</v>
+        <v>13.51865457999241</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.84461388456661</v>
+        <v>33.46779288079059</v>
       </c>
       <c r="C21">
-        <v>16.02307687725687</v>
+        <v>24.58716260403149</v>
       </c>
       <c r="D21">
-        <v>5.539161983975621</v>
+        <v>2.987494632012711</v>
       </c>
       <c r="E21">
-        <v>10.90403962727826</v>
+        <v>6.17509816406538</v>
       </c>
       <c r="F21">
-        <v>50.02285299637189</v>
+        <v>51.50378612553086</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.749668318287478</v>
+        <v>5.587523452665851</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.25224974863941</v>
+        <v>21.5697156817055</v>
       </c>
       <c r="N21">
-        <v>20.76232630103934</v>
+        <v>13.28231656035397</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22356383586934</v>
+        <v>34.86161738557954</v>
       </c>
       <c r="C22">
-        <v>16.34536877018077</v>
+        <v>25.62317542247559</v>
       </c>
       <c r="D22">
-        <v>5.544720120600739</v>
+        <v>3.050901617048911</v>
       </c>
       <c r="E22">
-        <v>10.89244909323283</v>
+        <v>6.199305631084434</v>
       </c>
       <c r="F22">
-        <v>50.30040776146078</v>
+        <v>53.17453815122185</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.736024999040371</v>
+        <v>5.578767934127084</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.37169856762194</v>
+        <v>22.46926956445319</v>
       </c>
       <c r="N22">
-        <v>20.72344933794138</v>
+        <v>13.13484714848762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.02151473150101</v>
+        <v>34.12041960449444</v>
       </c>
       <c r="C23">
-        <v>16.17378720003482</v>
+        <v>25.07215378066124</v>
       </c>
       <c r="D23">
-        <v>5.541751845905027</v>
+        <v>3.016818638590383</v>
       </c>
       <c r="E23">
-        <v>10.89854461082573</v>
+        <v>6.18611319406094</v>
       </c>
       <c r="F23">
-        <v>50.15139125677268</v>
+        <v>52.28091786166969</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.743225450514403</v>
+        <v>5.58316589686134</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.30761392162664</v>
+        <v>21.99105244883603</v>
       </c>
       <c r="N23">
-        <v>20.74403819446995</v>
+        <v>13.21286396686788</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.252572188941</v>
+        <v>31.25032879719956</v>
       </c>
       <c r="C24">
-        <v>15.51510593763762</v>
+        <v>22.94038865645515</v>
       </c>
       <c r="D24">
-        <v>5.530547582870415</v>
+        <v>2.892549876477073</v>
       </c>
       <c r="E24">
-        <v>10.92362220362124</v>
+        <v>6.141946973263762</v>
       </c>
       <c r="F24">
-        <v>49.60666059118471</v>
+        <v>48.93483524059226</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.772281906457913</v>
+        <v>5.605641928381528</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.0723622270214</v>
+        <v>20.13607732767521</v>
       </c>
       <c r="N24">
-        <v>20.82553772332906</v>
+        <v>13.5226251214038</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4202342129273</v>
+        <v>28.00159497655635</v>
       </c>
       <c r="C25">
-        <v>14.7900735140774</v>
+        <v>20.52991835739622</v>
       </c>
       <c r="D25">
-        <v>5.518531146329877</v>
+        <v>2.766069863210468</v>
       </c>
       <c r="E25">
-        <v>10.95494097650194</v>
+        <v>6.105625891445986</v>
       </c>
       <c r="F25">
-        <v>49.06289827814515</v>
+        <v>45.3905838508231</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.807446087105982</v>
+        <v>5.641051536023724</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.8354758208491</v>
+        <v>18.37801143351792</v>
       </c>
       <c r="N25">
-        <v>20.92095114036796</v>
+        <v>13.88255129539345</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46308309909245</v>
+        <v>12.77886803039546</v>
       </c>
       <c r="C2">
-        <v>18.64710481138552</v>
+        <v>6.841436602570043</v>
       </c>
       <c r="D2">
-        <v>2.677231734490772</v>
+        <v>5.115155221531865</v>
       </c>
       <c r="E2">
-        <v>6.087705676423799</v>
+        <v>7.477741953092974</v>
       </c>
       <c r="F2">
-        <v>42.82785216214453</v>
+        <v>24.24649921510664</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>3.379745852739143</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.867738582642526</v>
       </c>
       <c r="J2">
-        <v>5.675665773846959</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.62302264979146</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.959159696601703</v>
       </c>
       <c r="M2">
-        <v>17.15906586938822</v>
+        <v>10.36428872680288</v>
       </c>
       <c r="N2">
-        <v>14.16629976503013</v>
+        <v>6.486110016235025</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.939271800010953</v>
+      </c>
+      <c r="P2">
+        <v>14.01072406580594</v>
+      </c>
+      <c r="Q2">
+        <v>18.25917513596991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.78857785096521</v>
+        <v>12.01468117230836</v>
       </c>
       <c r="C3">
-        <v>17.29890070265849</v>
+        <v>6.598210476023866</v>
       </c>
       <c r="D3">
-        <v>2.618813986782856</v>
+        <v>4.95345498195488</v>
       </c>
       <c r="E3">
-        <v>6.080676656572291</v>
+        <v>7.379997024551138</v>
       </c>
       <c r="F3">
-        <v>41.11981752918229</v>
+        <v>24.04604954705492</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.558798516803183</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.007129340040692</v>
       </c>
       <c r="J3">
-        <v>5.704011276824559</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.65259008510709</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.926417949805327</v>
       </c>
       <c r="M3">
-        <v>16.31957566477675</v>
+        <v>9.743430562726619</v>
       </c>
       <c r="N3">
-        <v>14.36906239386587</v>
+        <v>6.362688982354238</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.609122121559967</v>
+      </c>
+      <c r="P3">
+        <v>14.14430185260894</v>
+      </c>
+      <c r="Q3">
+        <v>18.2252603478547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.73096822329572</v>
+        <v>11.51875112701288</v>
       </c>
       <c r="C4">
-        <v>16.47275744827267</v>
+        <v>6.444992471445101</v>
       </c>
       <c r="D4">
-        <v>2.583581772772269</v>
+        <v>4.852423621454527</v>
       </c>
       <c r="E4">
-        <v>6.078770110518132</v>
+        <v>7.318646298310016</v>
       </c>
       <c r="F4">
-        <v>40.08605395256335</v>
+        <v>23.9289275464012</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.672974226236778</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.096709183262375</v>
       </c>
       <c r="J4">
-        <v>5.723699829789283</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.6741255844979</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.905420796509076</v>
       </c>
       <c r="M4">
-        <v>15.79843312807792</v>
+        <v>9.340561315696643</v>
       </c>
       <c r="N4">
-        <v>14.49841923639643</v>
+        <v>6.286460609873197</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.401199774584356</v>
+      </c>
+      <c r="P4">
+        <v>14.22789151352234</v>
+      </c>
+      <c r="Q4">
+        <v>18.2095441614385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.29124028722469</v>
+        <v>11.30537432015937</v>
       </c>
       <c r="C5">
-        <v>16.13009336013433</v>
+        <v>6.385735455360162</v>
       </c>
       <c r="D5">
-        <v>2.569352088061009</v>
+        <v>4.811521476894219</v>
       </c>
       <c r="E5">
-        <v>6.078583381566978</v>
+        <v>7.292630828364559</v>
       </c>
       <c r="F5">
-        <v>39.66876054433116</v>
+        <v>23.87701573448858</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.720879679932065</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.136640565463682</v>
       </c>
       <c r="J5">
-        <v>5.732280453268522</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.67953251311305</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.896323999558984</v>
       </c>
       <c r="M5">
-        <v>15.58482834917818</v>
+        <v>9.17062283166659</v>
       </c>
       <c r="N5">
-        <v>14.55231840962449</v>
+        <v>6.256370882856233</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.314642472013754</v>
+      </c>
+      <c r="P5">
+        <v>14.26184964482708</v>
+      </c>
+      <c r="Q5">
+        <v>18.20035232013592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21770109620783</v>
+        <v>11.26384761332397</v>
       </c>
       <c r="C6">
-        <v>16.07272320195389</v>
+        <v>6.38090982497699</v>
       </c>
       <c r="D6">
-        <v>2.56699609139079</v>
+        <v>4.80550903993216</v>
       </c>
       <c r="E6">
-        <v>6.078587582806948</v>
+        <v>7.287451261227619</v>
       </c>
       <c r="F6">
-        <v>39.59971652213201</v>
+        <v>23.86152548363789</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.729266625473247</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.146418855127513</v>
       </c>
       <c r="J6">
-        <v>5.733738454040816</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.67534026570197</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.894417306766532</v>
       </c>
       <c r="M6">
-        <v>15.54929157094091</v>
+        <v>9.141648462367524</v>
       </c>
       <c r="N6">
-        <v>14.56133896578669</v>
+        <v>6.252670029161616</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.299433825833725</v>
+      </c>
+      <c r="P6">
+        <v>14.26689388878975</v>
+      </c>
+      <c r="Q6">
+        <v>18.1939490078878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.72507307232528</v>
+        <v>11.50067172332619</v>
       </c>
       <c r="C7">
-        <v>16.46816776065655</v>
+        <v>6.457906865918916</v>
       </c>
       <c r="D7">
-        <v>2.58338938943163</v>
+        <v>4.854037289448383</v>
       </c>
       <c r="E7">
-        <v>6.07876522247786</v>
+        <v>7.316023406724531</v>
       </c>
       <c r="F7">
-        <v>40.0804097792125</v>
+        <v>23.90928727210384</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.674599999994583</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.105401205483187</v>
       </c>
       <c r="J7">
-        <v>5.723813315674209</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.6601829695821</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.904269731887922</v>
       </c>
       <c r="M7">
-        <v>15.79555708302498</v>
+        <v>9.337140506037391</v>
       </c>
       <c r="N7">
-        <v>14.49914138414891</v>
+        <v>6.289583983862475</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.397964096086435</v>
+      </c>
+      <c r="P7">
+        <v>14.22670568697622</v>
+      </c>
+      <c r="Q7">
+        <v>18.19592488770867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.88689537365979</v>
+        <v>12.50224752377577</v>
       </c>
       <c r="C8">
-        <v>18.18979453534922</v>
+        <v>6.775944114072803</v>
       </c>
       <c r="D8">
-        <v>2.656936630662165</v>
+        <v>5.06254965036566</v>
       </c>
       <c r="E8">
-        <v>6.08477229313509</v>
+        <v>7.441407234268123</v>
       </c>
       <c r="F8">
-        <v>42.2359166542897</v>
+        <v>24.15148805488167</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.441836136360694</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.92528905221877</v>
       </c>
       <c r="J8">
-        <v>5.684954464282424</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.61409906811867</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.946756810085639</v>
       </c>
       <c r="M8">
-        <v>16.87089276359944</v>
+        <v>10.15330957117498</v>
       </c>
       <c r="N8">
-        <v>14.23517921770539</v>
+        <v>6.448234633355127</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.823933216184189</v>
+      </c>
+      <c r="P8">
+        <v>14.05450049940028</v>
+      </c>
+      <c r="Q8">
+        <v>18.22873266315946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11781626344321</v>
+        <v>14.27579127244072</v>
       </c>
       <c r="C9">
-        <v>21.3579252222383</v>
+        <v>7.344586881043515</v>
       </c>
       <c r="D9">
-        <v>2.807876539302814</v>
+        <v>5.451760936988402</v>
       </c>
       <c r="E9">
-        <v>6.11643420783829</v>
+        <v>7.680249199636706</v>
       </c>
       <c r="F9">
-        <v>46.57685800073777</v>
+        <v>24.7063435227444</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.016833822873176</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.590097894202999</v>
       </c>
       <c r="J9">
-        <v>5.627732193762755</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.576057159726</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.024819217072012</v>
       </c>
       <c r="M9">
-        <v>18.92865046436217</v>
+        <v>11.582929629683</v>
       </c>
       <c r="N9">
-        <v>13.7582044787669</v>
+        <v>6.748590029383207</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.61717223903857</v>
+      </c>
+      <c r="P9">
+        <v>13.73142492693085</v>
+      </c>
+      <c r="Q9">
+        <v>18.35841414253042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04054137467437</v>
+        <v>15.40688767895247</v>
       </c>
       <c r="C10">
-        <v>23.52705419003253</v>
+        <v>7.765478832337994</v>
       </c>
       <c r="D10">
-        <v>2.92556369278055</v>
+        <v>5.693690399909488</v>
       </c>
       <c r="E10">
-        <v>6.152996012519759</v>
+        <v>7.788668662520941</v>
       </c>
       <c r="F10">
-        <v>49.83722899667024</v>
+        <v>25.02642689366457</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.749090930124616</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.371821615102612</v>
       </c>
       <c r="J10">
-        <v>5.598606515640103</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.5055525535228</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.066731268380302</v>
       </c>
       <c r="M10">
-        <v>20.64734904293054</v>
+        <v>12.51616429181134</v>
       </c>
       <c r="N10">
-        <v>13.43631880837522</v>
+        <v>6.905884652616649</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.10962878203954</v>
+      </c>
+      <c r="P10">
+        <v>13.49624359904769</v>
+      </c>
+      <c r="Q10">
+        <v>18.41222192161245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.32836240234878</v>
+        <v>15.59997178720315</v>
       </c>
       <c r="C11">
-        <v>24.48356770789655</v>
+        <v>8.125081588591099</v>
       </c>
       <c r="D11">
-        <v>2.981312172116839</v>
+        <v>5.522319707803001</v>
       </c>
       <c r="E11">
-        <v>6.172818344138103</v>
+        <v>7.377621164954691</v>
       </c>
       <c r="F11">
-        <v>51.33895969266051</v>
+        <v>24.22904171003179</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.478400127975516</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.328744917981485</v>
       </c>
       <c r="J11">
-        <v>5.588512718018306</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.99651776462051</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.025949954310007</v>
       </c>
       <c r="M11">
-        <v>21.47966569295664</v>
+        <v>12.82491311988589</v>
       </c>
       <c r="N11">
-        <v>13.29723942243473</v>
+        <v>6.471756178158731</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.83463725047452</v>
+      </c>
+      <c r="P11">
+        <v>13.36583909056052</v>
+      </c>
+      <c r="Q11">
+        <v>17.88762723204077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.81053474164494</v>
+        <v>15.54740193290161</v>
       </c>
       <c r="C12">
-        <v>24.84184613538817</v>
+        <v>8.329695476605476</v>
       </c>
       <c r="D12">
-        <v>3.002815243866696</v>
+        <v>5.321601430142085</v>
       </c>
       <c r="E12">
-        <v>6.180812443153473</v>
+        <v>7.08950388055348</v>
       </c>
       <c r="F12">
-        <v>51.91076477715528</v>
+        <v>23.5055896566064</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.660959508036992</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.320172187559649</v>
       </c>
       <c r="J12">
-        <v>5.585178735986352</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.6047149606764</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.03256154454348</v>
       </c>
       <c r="M12">
-        <v>21.79102211970192</v>
+        <v>12.89696376264055</v>
       </c>
       <c r="N12">
-        <v>13.24575830551425</v>
+        <v>6.088836591457673</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.49670943774274</v>
+      </c>
+      <c r="P12">
+        <v>13.31929632461875</v>
+      </c>
+      <c r="Q12">
+        <v>17.44768819566927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.70692577531728</v>
+        <v>15.28300129698089</v>
       </c>
       <c r="C13">
-        <v>24.76485197227344</v>
+        <v>8.448892651082868</v>
       </c>
       <c r="D13">
-        <v>2.998165397933096</v>
+        <v>5.085592253474035</v>
       </c>
       <c r="E13">
-        <v>6.179068566770455</v>
+        <v>6.882641632089234</v>
       </c>
       <c r="F13">
-        <v>51.78746756336699</v>
+        <v>22.7634182325214</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.974280509622077</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.35097924073238</v>
       </c>
       <c r="J13">
-        <v>5.585874446424908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.25919138090997</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.072245312775712</v>
       </c>
       <c r="M13">
-        <v>21.72412990347389</v>
+        <v>12.79234921365327</v>
       </c>
       <c r="N13">
-        <v>13.25679059920691</v>
+        <v>5.729855188037959</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.08103872051026</v>
+      </c>
+      <c r="P13">
+        <v>13.3301807092804</v>
+      </c>
+      <c r="Q13">
+        <v>17.0250665393757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36813796967679</v>
+        <v>14.99461310654039</v>
       </c>
       <c r="C14">
-        <v>24.51311966618485</v>
+        <v>8.499269257321561</v>
       </c>
       <c r="D14">
-        <v>2.983072907194388</v>
+        <v>4.903611280079364</v>
       </c>
       <c r="E14">
-        <v>6.173466065396236</v>
+        <v>6.790367763364818</v>
       </c>
       <c r="F14">
-        <v>51.38593632587919</v>
+        <v>22.23226752198825</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.932843214814397</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.392965049804209</v>
       </c>
       <c r="J14">
-        <v>5.588228426898254</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.0379628748441</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.119878125988673</v>
       </c>
       <c r="M14">
-        <v>21.50535562948033</v>
+        <v>12.63757448126866</v>
       </c>
       <c r="N14">
-        <v>13.29297944220343</v>
+        <v>5.498015593589002</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.751372389518227</v>
+      </c>
+      <c r="P14">
+        <v>13.36429948996265</v>
+      </c>
+      <c r="Q14">
+        <v>16.73552086285345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15992126076128</v>
+        <v>14.87347765405961</v>
       </c>
       <c r="C15">
-        <v>24.35842778502748</v>
+        <v>8.498142169899898</v>
       </c>
       <c r="D15">
-        <v>2.973881842569945</v>
+        <v>4.852542490701052</v>
       </c>
       <c r="E15">
-        <v>6.17009883344199</v>
+        <v>6.774089951521635</v>
       </c>
       <c r="F15">
-        <v>51.14041177697287</v>
+        <v>22.09466953132655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.159432162394719</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.415877103289707</v>
       </c>
       <c r="J15">
-        <v>5.589735011866854</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.98995417850725</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.131981183449827</v>
       </c>
       <c r="M15">
-        <v>21.37086330509199</v>
+        <v>12.56107000037924</v>
       </c>
       <c r="N15">
-        <v>13.31530483193791</v>
+        <v>5.444930220883557</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.654081382410794</v>
+      </c>
+      <c r="P15">
+        <v>13.38309090543742</v>
+      </c>
+      <c r="Q15">
+        <v>16.66551313852267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.95558041489195</v>
+        <v>14.43568840941217</v>
       </c>
       <c r="C16">
-        <v>23.46396928329368</v>
+        <v>8.311967713094205</v>
       </c>
       <c r="D16">
-        <v>2.92197096582943</v>
+        <v>4.79049964808595</v>
       </c>
       <c r="E16">
-        <v>6.151767163344124</v>
+        <v>6.764691779211033</v>
       </c>
       <c r="F16">
-        <v>49.73949621221336</v>
+        <v>22.08875349552708</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.984505679425794</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.507920381120386</v>
       </c>
       <c r="J16">
-        <v>5.599332510820707</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.08407535941506</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.101358795937186</v>
       </c>
       <c r="M16">
-        <v>20.5924000189504</v>
+        <v>12.19288883253852</v>
       </c>
       <c r="N16">
-        <v>13.44556616624921</v>
+        <v>5.448023972762859</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.513705984227725</v>
+      </c>
+      <c r="P16">
+        <v>13.47381440199719</v>
+      </c>
+      <c r="Q16">
+        <v>16.71827873951742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.20639681440063</v>
+        <v>14.25374085668184</v>
       </c>
       <c r="C17">
-        <v>22.90777794746051</v>
+        <v>8.139324395310592</v>
       </c>
       <c r="D17">
-        <v>2.890740768168378</v>
+        <v>4.841898344907143</v>
       </c>
       <c r="E17">
-        <v>6.141357790938824</v>
+        <v>6.797576303694928</v>
       </c>
       <c r="F17">
-        <v>48.88510607901145</v>
+        <v>22.36789459919274</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.31486735929187</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.556936202825724</v>
       </c>
       <c r="J17">
-        <v>5.60605157706732</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.27202697158653</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.049060709694915</v>
       </c>
       <c r="M17">
-        <v>20.10763987668032</v>
+        <v>11.99062224825965</v>
       </c>
       <c r="N17">
-        <v>13.52744184793542</v>
+        <v>5.570188050320412</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.585294165519787</v>
+      </c>
+      <c r="P17">
+        <v>13.52598054875589</v>
+      </c>
+      <c r="Q17">
+        <v>16.91252469223617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.77152210488396</v>
+        <v>14.28756295088942</v>
       </c>
       <c r="C18">
-        <v>22.58499688778719</v>
+        <v>7.950805414478442</v>
       </c>
       <c r="D18">
-        <v>2.872981057408757</v>
+        <v>4.99570100771656</v>
       </c>
       <c r="E18">
-        <v>6.135668913328192</v>
+        <v>6.921163017400095</v>
       </c>
       <c r="F18">
-        <v>48.39539314256588</v>
+        <v>22.9368070283003</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.19417442295602</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.563800788728101</v>
       </c>
       <c r="J18">
-        <v>5.610210894503882</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.57541906981161</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.994871805840287</v>
       </c>
       <c r="M18">
-        <v>19.82606475218639</v>
+        <v>11.9145881491985</v>
       </c>
       <c r="N18">
-        <v>13.57521694614404</v>
+        <v>5.827091460591513</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.849023041684569</v>
+      </c>
+      <c r="P18">
+        <v>13.55657165337229</v>
+      </c>
+      <c r="Q18">
+        <v>17.25988169796763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.6235862177181</v>
+        <v>14.46751172060988</v>
       </c>
       <c r="C19">
-        <v>22.47520354509046</v>
+        <v>7.795506105386026</v>
       </c>
       <c r="D19">
-        <v>2.86700074472758</v>
+        <v>5.223175417883115</v>
       </c>
       <c r="E19">
-        <v>6.133793172955211</v>
+        <v>7.175470165159852</v>
       </c>
       <c r="F19">
-        <v>48.22986738763107</v>
+        <v>23.66860077556969</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.948009029616177</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.551359708742177</v>
       </c>
       <c r="J19">
-        <v>5.61166880621677</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.93511038430891</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.977233696488658</v>
       </c>
       <c r="M19">
-        <v>19.73024550151786</v>
+        <v>11.94551482074853</v>
       </c>
       <c r="N19">
-        <v>13.59150651828383</v>
+        <v>6.204133448116023</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.24156132319809</v>
+      </c>
+      <c r="P19">
+        <v>13.57539848653373</v>
+      </c>
+      <c r="Q19">
+        <v>17.68519945307809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.28655558667952</v>
+        <v>15.07998331473866</v>
       </c>
       <c r="C20">
-        <v>22.96728018216091</v>
+        <v>7.695431271254677</v>
       </c>
       <c r="D20">
-        <v>2.894043761641581</v>
+        <v>5.635342430013127</v>
       </c>
       <c r="E20">
-        <v>6.142434814034681</v>
+        <v>7.751634791854194</v>
       </c>
       <c r="F20">
-        <v>48.97587768336839</v>
+        <v>24.88034382266377</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.820518250033907</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.45507932727357</v>
       </c>
       <c r="J20">
-        <v>5.605305587102995</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.47811366202443</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.052763685574143</v>
       </c>
       <c r="M20">
-        <v>20.15952608723898</v>
+        <v>12.27482435651182</v>
       </c>
       <c r="N20">
-        <v>13.51865457999241</v>
+        <v>6.872157546630543</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.97425784096983</v>
+      </c>
+      <c r="P20">
+        <v>13.55385296786039</v>
+      </c>
+      <c r="Q20">
+        <v>18.35313200393534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.46779288079059</v>
+        <v>15.96496068691919</v>
       </c>
       <c r="C21">
-        <v>24.58716260403149</v>
+        <v>7.975732704894986</v>
       </c>
       <c r="D21">
-        <v>2.987494632012711</v>
+        <v>5.865703903976433</v>
       </c>
       <c r="E21">
-        <v>6.17509816406538</v>
+        <v>7.925427697374399</v>
       </c>
       <c r="F21">
-        <v>51.50378612553086</v>
+        <v>25.31190935633089</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.583208745218721</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.281172593917746</v>
       </c>
       <c r="J21">
-        <v>5.587523452665851</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.52200637505162</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.101272813530174</v>
       </c>
       <c r="M21">
-        <v>21.5697156817055</v>
+        <v>12.97497784507707</v>
       </c>
       <c r="N21">
-        <v>13.28231656035397</v>
+        <v>7.083203876029789</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.42983034850569</v>
+      </c>
+      <c r="P21">
+        <v>13.38263818546689</v>
+      </c>
+      <c r="Q21">
+        <v>18.50775326154087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86161738557954</v>
+        <v>16.5161656008347</v>
       </c>
       <c r="C22">
-        <v>25.62317542247559</v>
+        <v>8.14913411524798</v>
       </c>
       <c r="D22">
-        <v>3.050901617048911</v>
+        <v>5.994350667768996</v>
       </c>
       <c r="E22">
-        <v>6.199305631084434</v>
+        <v>8.009972094958087</v>
       </c>
       <c r="F22">
-        <v>53.17453815122185</v>
+        <v>25.56669635925752</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.442259928680292</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.161921717776595</v>
       </c>
       <c r="J22">
-        <v>5.578767934127084</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.54450773887626</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.127785545188956</v>
       </c>
       <c r="M22">
-        <v>22.46926956445319</v>
+        <v>13.40888573857629</v>
       </c>
       <c r="N22">
-        <v>13.13484714848762</v>
+        <v>7.184721101261594</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.69359011011232</v>
+      </c>
+      <c r="P22">
+        <v>13.27101835879742</v>
+      </c>
+      <c r="Q22">
+        <v>18.59908974940927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.12041960449444</v>
+        <v>16.23750200424522</v>
       </c>
       <c r="C23">
-        <v>25.07215378066124</v>
+        <v>8.043050637215785</v>
       </c>
       <c r="D23">
-        <v>3.016818638590383</v>
+        <v>5.923829578506374</v>
       </c>
       <c r="E23">
-        <v>6.18611319406094</v>
+        <v>7.967318553019695</v>
       </c>
       <c r="F23">
-        <v>52.28091786166969</v>
+        <v>25.45087308588955</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.516283154931712</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.214641096203515</v>
       </c>
       <c r="J23">
-        <v>5.58316589686134</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.54815571946632</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.11469870619942</v>
       </c>
       <c r="M23">
-        <v>21.99105244883603</v>
+        <v>13.18007892590604</v>
       </c>
       <c r="N23">
-        <v>13.21286396686788</v>
+        <v>7.126895602211782</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.55555159088413</v>
+      </c>
+      <c r="P23">
+        <v>13.33172175654873</v>
+      </c>
+      <c r="Q23">
+        <v>18.56498595421554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.25032879719956</v>
+        <v>15.11247010050841</v>
       </c>
       <c r="C24">
-        <v>22.94038865645515</v>
+        <v>7.654803176123616</v>
       </c>
       <c r="D24">
-        <v>2.892549876477073</v>
+        <v>5.654256153756157</v>
       </c>
       <c r="E24">
-        <v>6.141946973263762</v>
+        <v>7.799405190976033</v>
       </c>
       <c r="F24">
-        <v>48.93483524059226</v>
+        <v>24.99010044568539</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.80457521580533</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.437796566872644</v>
       </c>
       <c r="J24">
-        <v>5.605641928381528</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.54445663991347</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.062224928155959</v>
       </c>
       <c r="M24">
-        <v>20.13607732767521</v>
+        <v>12.2733831946725</v>
       </c>
       <c r="N24">
-        <v>13.5226251214038</v>
+        <v>6.911366092909518</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.01526835531249</v>
+      </c>
+      <c r="P24">
+        <v>13.56188926976041</v>
+      </c>
+      <c r="Q24">
+        <v>18.42308896059009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.00159497655635</v>
+        <v>13.79612798835699</v>
       </c>
       <c r="C25">
-        <v>20.52991835739622</v>
+        <v>7.217178933355997</v>
       </c>
       <c r="D25">
-        <v>2.766069863210468</v>
+        <v>5.35202775542518</v>
       </c>
       <c r="E25">
-        <v>6.105625891445986</v>
+        <v>7.613033211322538</v>
       </c>
       <c r="F25">
-        <v>45.3905838508231</v>
+        <v>24.51840850843625</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.129895995592097</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.692147195197477</v>
       </c>
       <c r="J25">
-        <v>5.641051536023724</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.558418612359</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.00276491500018</v>
       </c>
       <c r="M25">
-        <v>18.37801143351792</v>
+        <v>11.21298685861557</v>
       </c>
       <c r="N25">
-        <v>13.88255129539345</v>
+        <v>6.674037941265675</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.40458512497692</v>
+      </c>
+      <c r="P25">
+        <v>13.81527439005248</v>
+      </c>
+      <c r="Q25">
+        <v>18.2949510658116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77886803039546</v>
+        <v>12.40342019183249</v>
       </c>
       <c r="C2">
-        <v>6.841436602570043</v>
+        <v>6.71801192014584</v>
       </c>
       <c r="D2">
-        <v>5.115155221531865</v>
+        <v>5.208535609066439</v>
       </c>
       <c r="E2">
-        <v>7.477741953092974</v>
+        <v>7.437650645860276</v>
       </c>
       <c r="F2">
-        <v>24.24649921510664</v>
+        <v>23.51566111327159</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.379745852739143</v>
+        <v>3.229984091100583</v>
       </c>
       <c r="I2">
-        <v>3.867738582642526</v>
+        <v>3.671694577250348</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>17.62302264979146</v>
+        <v>16.87976224616719</v>
       </c>
       <c r="L2">
-        <v>5.959159696601703</v>
+        <v>13.33796086192534</v>
       </c>
       <c r="M2">
-        <v>10.36428872680288</v>
+        <v>11.61268000798285</v>
       </c>
       <c r="N2">
-        <v>6.486110016235025</v>
+        <v>5.906539297630988</v>
       </c>
       <c r="O2">
-        <v>9.939271800010953</v>
+        <v>10.39674187791261</v>
       </c>
       <c r="P2">
-        <v>14.01072406580594</v>
+        <v>6.711941287725429</v>
       </c>
       <c r="Q2">
-        <v>18.25917513596991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.859751887021705</v>
+      </c>
+      <c r="R2">
+        <v>13.79390416403989</v>
+      </c>
+      <c r="S2">
+        <v>17.6652248689545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01468117230836</v>
+        <v>11.6669422024081</v>
       </c>
       <c r="C3">
-        <v>6.598210476023866</v>
+        <v>6.396652992688802</v>
       </c>
       <c r="D3">
-        <v>4.95345498195488</v>
+        <v>5.043282821996129</v>
       </c>
       <c r="E3">
-        <v>7.379997024551138</v>
+        <v>7.347666288976451</v>
       </c>
       <c r="F3">
-        <v>24.04604954705492</v>
+        <v>23.35995323637452</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.558798516803183</v>
+        <v>3.399310535736152</v>
       </c>
       <c r="I3">
-        <v>4.007129340040692</v>
+        <v>3.798003544968297</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>17.65259008510709</v>
+        <v>16.9375752347445</v>
       </c>
       <c r="L3">
-        <v>5.926417949805327</v>
+        <v>13.45655646990965</v>
       </c>
       <c r="M3">
-        <v>9.743430562726619</v>
+        <v>11.61722635414522</v>
       </c>
       <c r="N3">
-        <v>6.362688982354238</v>
+        <v>5.875448354774957</v>
       </c>
       <c r="O3">
-        <v>9.609122121559967</v>
+        <v>9.782048338364495</v>
       </c>
       <c r="P3">
-        <v>14.14430185260894</v>
+        <v>6.585556959509802</v>
       </c>
       <c r="Q3">
-        <v>18.2252603478547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.532104953803573</v>
+      </c>
+      <c r="R3">
+        <v>13.9226285749891</v>
+      </c>
+      <c r="S3">
+        <v>17.66228595596776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.51875112701288</v>
+        <v>11.18781068746609</v>
       </c>
       <c r="C4">
-        <v>6.444992471445101</v>
+        <v>6.193534637650677</v>
       </c>
       <c r="D4">
-        <v>4.852423621454527</v>
+        <v>4.940148704988577</v>
       </c>
       <c r="E4">
-        <v>7.318646298310016</v>
+        <v>7.291138117383491</v>
       </c>
       <c r="F4">
-        <v>23.9289275464012</v>
+        <v>23.26956543738634</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.672974226236778</v>
+        <v>3.507314920393417</v>
       </c>
       <c r="I4">
-        <v>4.096709183262375</v>
+        <v>3.879442130784854</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>17.6741255844979</v>
+        <v>16.97558605866487</v>
       </c>
       <c r="L4">
-        <v>5.905420796509076</v>
+        <v>13.53029714682904</v>
       </c>
       <c r="M4">
-        <v>9.340561315696643</v>
+        <v>11.6356803016446</v>
       </c>
       <c r="N4">
-        <v>6.286460609873197</v>
+        <v>5.855491313870137</v>
       </c>
       <c r="O4">
-        <v>9.401199774584356</v>
+        <v>9.383282306687818</v>
       </c>
       <c r="P4">
-        <v>14.22789151352234</v>
+        <v>6.50783411503018</v>
       </c>
       <c r="Q4">
-        <v>18.2095441614385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.325532277800216</v>
+      </c>
+      <c r="R4">
+        <v>14.00340016492761</v>
+      </c>
+      <c r="S4">
+        <v>17.66488101753653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30537432015937</v>
+        <v>10.98113972615848</v>
       </c>
       <c r="C5">
-        <v>6.385735455360162</v>
+        <v>6.114288664430459</v>
       </c>
       <c r="D5">
-        <v>4.811521476894219</v>
+        <v>4.898411454891207</v>
       </c>
       <c r="E5">
-        <v>7.292630828364559</v>
+        <v>7.267109373502295</v>
       </c>
       <c r="F5">
-        <v>23.87701573448858</v>
+        <v>23.22836797095598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.720879679932065</v>
+        <v>3.55265025885581</v>
       </c>
       <c r="I5">
-        <v>4.136640565463682</v>
+        <v>3.916440918622225</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>17.67953251311305</v>
+        <v>16.98757959490272</v>
       </c>
       <c r="L5">
-        <v>5.896323999558984</v>
+        <v>13.55652312152393</v>
       </c>
       <c r="M5">
-        <v>9.17062283166659</v>
+        <v>11.64495362698675</v>
       </c>
       <c r="N5">
-        <v>6.256370882856233</v>
+        <v>5.846839898255053</v>
       </c>
       <c r="O5">
-        <v>9.314642472013754</v>
+        <v>9.215102858551084</v>
       </c>
       <c r="P5">
-        <v>14.26184964482708</v>
+        <v>6.477214764296879</v>
       </c>
       <c r="Q5">
-        <v>18.20035232013592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.23947198100187</v>
+      </c>
+      <c r="R5">
+        <v>14.03633401000642</v>
+      </c>
+      <c r="S5">
+        <v>17.66300424602513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26384761332397</v>
+        <v>10.94065677870541</v>
       </c>
       <c r="C6">
-        <v>6.38090982497699</v>
+        <v>6.107093767200049</v>
       </c>
       <c r="D6">
-        <v>4.80550903993216</v>
+        <v>4.892259541026447</v>
       </c>
       <c r="E6">
-        <v>7.287451261227619</v>
+        <v>7.262271142510343</v>
       </c>
       <c r="F6">
-        <v>23.86152548363789</v>
+        <v>23.21466938042716</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.729266625473247</v>
+        <v>3.560602257268396</v>
       </c>
       <c r="I6">
-        <v>4.146418855127513</v>
+        <v>3.926274161031178</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>17.67534026570197</v>
+        <v>16.98457858222112</v>
       </c>
       <c r="L6">
-        <v>5.894417306766532</v>
+        <v>13.55593973893559</v>
       </c>
       <c r="M6">
-        <v>9.141648462367524</v>
+        <v>11.64407014483614</v>
       </c>
       <c r="N6">
-        <v>6.252670029161616</v>
+        <v>5.845026058443372</v>
       </c>
       <c r="O6">
-        <v>9.299433825833725</v>
+        <v>9.1864276256747</v>
       </c>
       <c r="P6">
-        <v>14.26689388878975</v>
+        <v>6.473424266875141</v>
       </c>
       <c r="Q6">
-        <v>18.1939490078878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.224338498621423</v>
+      </c>
+      <c r="R6">
+        <v>14.04131598114741</v>
+      </c>
+      <c r="S6">
+        <v>17.65784753803758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50067172332619</v>
+        <v>11.16966633318293</v>
       </c>
       <c r="C7">
-        <v>6.457906865918916</v>
+        <v>6.208810347094959</v>
       </c>
       <c r="D7">
-        <v>4.854037289448383</v>
+        <v>4.94174553555526</v>
       </c>
       <c r="E7">
-        <v>7.316023406724531</v>
+        <v>7.288572670609848</v>
       </c>
       <c r="F7">
-        <v>23.90928727210384</v>
+        <v>23.25015713853298</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.674599999994583</v>
+        <v>3.508891876588697</v>
       </c>
       <c r="I7">
-        <v>4.105401205483187</v>
+        <v>3.889519921711037</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>17.6601829695821</v>
+        <v>16.96206764234219</v>
       </c>
       <c r="L7">
-        <v>5.904269731887922</v>
+        <v>13.51747925429196</v>
       </c>
       <c r="M7">
-        <v>9.337140506037391</v>
+        <v>11.62821855727194</v>
       </c>
       <c r="N7">
-        <v>6.289583983862475</v>
+        <v>5.854399529644343</v>
       </c>
       <c r="O7">
-        <v>9.397964096086435</v>
+        <v>9.379889604258567</v>
       </c>
       <c r="P7">
-        <v>14.22670568697622</v>
+        <v>6.510935316738585</v>
       </c>
       <c r="Q7">
-        <v>18.19592488770867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.322292666413992</v>
+      </c>
+      <c r="R7">
+        <v>14.00250408406187</v>
+      </c>
+      <c r="S7">
+        <v>17.65149625237969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.50224752377577</v>
+        <v>12.1362365829577</v>
       </c>
       <c r="C8">
-        <v>6.775944114072803</v>
+        <v>6.629275448097835</v>
       </c>
       <c r="D8">
-        <v>5.06254965036566</v>
+        <v>5.154687634941213</v>
       </c>
       <c r="E8">
-        <v>7.441407234268123</v>
+        <v>7.404024912784857</v>
       </c>
       <c r="F8">
-        <v>24.15148805488167</v>
+        <v>23.43640246435946</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.441836136360694</v>
+        <v>3.288739844341716</v>
       </c>
       <c r="I8">
-        <v>3.92528905221877</v>
+        <v>3.726571365896337</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>17.61409906811867</v>
+        <v>16.88133066960902</v>
       </c>
       <c r="L8">
-        <v>5.946756810085639</v>
+        <v>13.36271156263166</v>
       </c>
       <c r="M8">
-        <v>10.15330957117498</v>
+        <v>11.5997420750379</v>
       </c>
       <c r="N8">
-        <v>6.448234633355127</v>
+        <v>5.894781664448923</v>
       </c>
       <c r="O8">
-        <v>9.823933216184189</v>
+        <v>10.18783230714307</v>
       </c>
       <c r="P8">
-        <v>14.05450049940028</v>
+        <v>6.672976371110373</v>
       </c>
       <c r="Q8">
-        <v>18.22873266315946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.745302945598212</v>
+      </c>
+      <c r="R8">
+        <v>13.8364389697092</v>
+      </c>
+      <c r="S8">
+        <v>17.64585344238001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27579127244072</v>
+        <v>13.84074581683256</v>
       </c>
       <c r="C9">
-        <v>7.344586881043515</v>
+        <v>7.378040639074523</v>
       </c>
       <c r="D9">
-        <v>5.451760936988402</v>
+        <v>5.553046340160711</v>
       </c>
       <c r="E9">
-        <v>7.680249199636706</v>
+        <v>7.623852277938221</v>
       </c>
       <c r="F9">
-        <v>24.7063435227444</v>
+        <v>23.87607129517001</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.016833822873176</v>
+        <v>2.886967441718757</v>
       </c>
       <c r="I9">
-        <v>3.590097894202999</v>
+        <v>3.421929143525595</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>17.576057159726</v>
+        <v>16.76754176380836</v>
       </c>
       <c r="L9">
-        <v>6.024819217072012</v>
+        <v>13.08724372501003</v>
       </c>
       <c r="M9">
-        <v>11.582929629683</v>
+        <v>11.68408549172152</v>
       </c>
       <c r="N9">
-        <v>6.748590029383207</v>
+        <v>5.968819013222613</v>
       </c>
       <c r="O9">
-        <v>10.61717223903857</v>
+        <v>11.60362244929199</v>
       </c>
       <c r="P9">
-        <v>13.73142492693085</v>
+        <v>6.982395503957917</v>
       </c>
       <c r="Q9">
-        <v>18.35841414253042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.53136934035689</v>
+      </c>
+      <c r="R9">
+        <v>13.52614802366683</v>
+      </c>
+      <c r="S9">
+        <v>17.69432935761983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.40688767895247</v>
+        <v>14.92618914552962</v>
       </c>
       <c r="C10">
-        <v>7.765478832337994</v>
+        <v>7.919228917974847</v>
       </c>
       <c r="D10">
-        <v>5.693690399909488</v>
+        <v>5.80103508928856</v>
       </c>
       <c r="E10">
-        <v>7.788668662520941</v>
+        <v>7.720736759780038</v>
       </c>
       <c r="F10">
-        <v>25.02642689366457</v>
+        <v>24.11708793614879</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.749090930124616</v>
+        <v>2.635400921897801</v>
       </c>
       <c r="I10">
-        <v>3.371821615102612</v>
+        <v>3.226173546539195</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>17.5055525535228</v>
+        <v>16.64459299715746</v>
       </c>
       <c r="L10">
-        <v>6.066731268380302</v>
+        <v>12.84955968085961</v>
       </c>
       <c r="M10">
-        <v>12.51616429181134</v>
+        <v>11.7796420669128</v>
       </c>
       <c r="N10">
-        <v>6.905884652616649</v>
+        <v>6.009827864758326</v>
       </c>
       <c r="O10">
-        <v>11.10962878203954</v>
+        <v>12.52823083208219</v>
       </c>
       <c r="P10">
-        <v>13.49624359904769</v>
+        <v>7.1460899986357</v>
       </c>
       <c r="Q10">
-        <v>18.41222192161245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.01837889395557</v>
+      </c>
+      <c r="R10">
+        <v>13.3039762115663</v>
+      </c>
+      <c r="S10">
+        <v>17.69152903159461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.59997178720315</v>
+        <v>15.13512615856627</v>
       </c>
       <c r="C11">
-        <v>8.125081588591099</v>
+        <v>8.314216715370906</v>
       </c>
       <c r="D11">
-        <v>5.522319707803001</v>
+        <v>5.625974829188948</v>
       </c>
       <c r="E11">
-        <v>7.377621164954691</v>
+        <v>7.322735129482578</v>
       </c>
       <c r="F11">
-        <v>24.22904171003179</v>
+        <v>23.35038682659155</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.478400127975516</v>
+        <v>3.39234823117255</v>
       </c>
       <c r="I11">
-        <v>3.328744917981485</v>
+        <v>3.192183912242878</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>16.99651776462051</v>
+        <v>16.17497993214831</v>
       </c>
       <c r="L11">
-        <v>6.025949954310007</v>
+        <v>12.44386211885659</v>
       </c>
       <c r="M11">
-        <v>12.82491311988589</v>
+        <v>11.50063493582971</v>
       </c>
       <c r="N11">
-        <v>6.471756178158731</v>
+        <v>5.984940445606081</v>
       </c>
       <c r="O11">
-        <v>10.83463725047452</v>
+        <v>12.83640945743141</v>
       </c>
       <c r="P11">
-        <v>13.36583909056052</v>
+        <v>6.701070332255413</v>
       </c>
       <c r="Q11">
-        <v>17.88762723204077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.74557648235644</v>
+      </c>
+      <c r="R11">
+        <v>13.20040168840684</v>
+      </c>
+      <c r="S11">
+        <v>17.19280689263212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54740193290161</v>
+        <v>15.10618010787321</v>
       </c>
       <c r="C12">
-        <v>8.329695476605476</v>
+        <v>8.517992329172122</v>
       </c>
       <c r="D12">
-        <v>5.321601430142085</v>
+        <v>5.420755485966779</v>
       </c>
       <c r="E12">
-        <v>7.08950388055348</v>
+        <v>7.048728100653083</v>
       </c>
       <c r="F12">
-        <v>23.5055896566064</v>
+        <v>22.67009263309479</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.660959508036992</v>
+        <v>4.596647566243554</v>
       </c>
       <c r="I12">
-        <v>3.320172187559649</v>
+        <v>3.184085333559641</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>16.6047149606764</v>
+        <v>15.82731349466927</v>
       </c>
       <c r="L12">
-        <v>6.03256154454348</v>
+        <v>12.17749645861426</v>
       </c>
       <c r="M12">
-        <v>12.89696376264055</v>
+        <v>11.25107940991233</v>
       </c>
       <c r="N12">
-        <v>6.088836591457673</v>
+        <v>6.0043466627385</v>
       </c>
       <c r="O12">
-        <v>10.49670943774274</v>
+        <v>12.90969558274884</v>
       </c>
       <c r="P12">
-        <v>13.31929632461875</v>
+        <v>6.30648709406227</v>
       </c>
       <c r="Q12">
-        <v>17.44768819566927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.41077076813498</v>
+      </c>
+      <c r="R12">
+        <v>13.17177700104978</v>
+      </c>
+      <c r="S12">
+        <v>16.78696617781745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.28300129698089</v>
+        <v>14.87357240203098</v>
       </c>
       <c r="C13">
-        <v>8.448892651082868</v>
+        <v>8.612476312950122</v>
       </c>
       <c r="D13">
-        <v>5.085592253474035</v>
+        <v>5.179332411634523</v>
       </c>
       <c r="E13">
-        <v>6.882641632089234</v>
+        <v>6.856904526880473</v>
       </c>
       <c r="F13">
-        <v>22.7634182325214</v>
+        <v>21.98367905860152</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.974280509622077</v>
+        <v>5.922103790984791</v>
       </c>
       <c r="I13">
-        <v>3.35097924073238</v>
+        <v>3.211245020308338</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>16.25919138090997</v>
+        <v>15.53239236665856</v>
       </c>
       <c r="L13">
-        <v>6.072245312775712</v>
+        <v>11.97720098746036</v>
       </c>
       <c r="M13">
-        <v>12.79234921365327</v>
+        <v>10.99809897123184</v>
       </c>
       <c r="N13">
-        <v>5.729855188037959</v>
+        <v>6.054581865077358</v>
       </c>
       <c r="O13">
-        <v>10.08103872051026</v>
+        <v>12.8078165637055</v>
       </c>
       <c r="P13">
-        <v>13.3301807092804</v>
+        <v>5.934870648165988</v>
       </c>
       <c r="Q13">
-        <v>17.0250665393757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.999071052926972</v>
+      </c>
+      <c r="R13">
+        <v>13.19477631109367</v>
+      </c>
+      <c r="S13">
+        <v>16.40709109918464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.99461310654039</v>
+        <v>14.61155003263169</v>
       </c>
       <c r="C14">
-        <v>8.499269257321561</v>
+        <v>8.634869302031372</v>
       </c>
       <c r="D14">
-        <v>4.903611280079364</v>
+        <v>4.993160439072289</v>
       </c>
       <c r="E14">
-        <v>6.790367763364818</v>
+        <v>6.775016476963446</v>
       </c>
       <c r="F14">
-        <v>22.23226752198825</v>
+        <v>21.49703419845148</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.932843214814397</v>
+        <v>6.885940315888825</v>
       </c>
       <c r="I14">
-        <v>3.392965049804209</v>
+        <v>3.249353285872092</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>16.0379628748441</v>
+        <v>15.34889184389655</v>
       </c>
       <c r="L14">
-        <v>6.119878125988673</v>
+        <v>11.8620999816393</v>
       </c>
       <c r="M14">
-        <v>12.63757448126866</v>
+        <v>10.82234453371202</v>
       </c>
       <c r="N14">
-        <v>5.498015593589002</v>
+        <v>6.10815330285244</v>
       </c>
       <c r="O14">
-        <v>9.751372389518227</v>
+        <v>12.65566258009019</v>
       </c>
       <c r="P14">
-        <v>13.36429948996265</v>
+        <v>5.693917339936823</v>
       </c>
       <c r="Q14">
-        <v>16.73552086285345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.672509334530259</v>
+      </c>
+      <c r="R14">
+        <v>13.23441613030652</v>
+      </c>
+      <c r="S14">
+        <v>16.15108188067016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.87347765405961</v>
+        <v>14.4985829404605</v>
       </c>
       <c r="C15">
-        <v>8.498142169899898</v>
+        <v>8.622714585469703</v>
       </c>
       <c r="D15">
-        <v>4.852542490701052</v>
+        <v>4.940901030186303</v>
       </c>
       <c r="E15">
-        <v>6.774089951521635</v>
+        <v>6.761277080017269</v>
       </c>
       <c r="F15">
-        <v>22.09466953132655</v>
+        <v>21.37279917165569</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.159432162394719</v>
+        <v>7.113124357238441</v>
       </c>
       <c r="I15">
-        <v>3.415877103289707</v>
+        <v>3.271142199619929</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>15.98995417850725</v>
+        <v>15.31136015882237</v>
       </c>
       <c r="L15">
-        <v>6.131981183449827</v>
+        <v>11.84236445371916</v>
       </c>
       <c r="M15">
-        <v>12.56107000037924</v>
+        <v>10.77828868038467</v>
       </c>
       <c r="N15">
-        <v>5.444930220883557</v>
+        <v>6.121302856804276</v>
       </c>
       <c r="O15">
-        <v>9.654081382410794</v>
+        <v>12.58013408687572</v>
       </c>
       <c r="P15">
-        <v>13.38309090543742</v>
+        <v>5.638700656043764</v>
       </c>
       <c r="Q15">
-        <v>16.66551313852267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.576118853996132</v>
+      </c>
+      <c r="R15">
+        <v>13.25354876429454</v>
+      </c>
+      <c r="S15">
+        <v>16.09096291108348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.43568840941217</v>
+        <v>14.07588776834659</v>
       </c>
       <c r="C16">
-        <v>8.311967713094205</v>
+        <v>8.393625155198462</v>
       </c>
       <c r="D16">
-        <v>4.79049964808595</v>
+        <v>4.877379243917681</v>
       </c>
       <c r="E16">
-        <v>6.764691779211033</v>
+        <v>6.752522055923242</v>
       </c>
       <c r="F16">
-        <v>22.08875349552708</v>
+        <v>21.38909659646312</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.984505679425794</v>
+        <v>6.932483921038816</v>
       </c>
       <c r="I16">
-        <v>3.507920381120386</v>
+        <v>3.355230604430914</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>16.08407535941506</v>
+        <v>15.41567824177056</v>
       </c>
       <c r="L16">
-        <v>6.101358795937186</v>
+        <v>11.94894996852202</v>
       </c>
       <c r="M16">
-        <v>12.19288883253852</v>
+        <v>10.79771851303603</v>
       </c>
       <c r="N16">
-        <v>5.448023972762859</v>
+        <v>6.087710996782429</v>
       </c>
       <c r="O16">
-        <v>9.513705984227725</v>
+        <v>12.21511357301845</v>
       </c>
       <c r="P16">
-        <v>13.47381440199719</v>
+        <v>5.643071831760762</v>
       </c>
       <c r="Q16">
-        <v>16.71827873951742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.437076133544723</v>
+      </c>
+      <c r="R16">
+        <v>13.3346206080785</v>
+      </c>
+      <c r="S16">
+        <v>16.15864569787354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25374085668184</v>
+        <v>13.89085882829787</v>
       </c>
       <c r="C17">
-        <v>8.139324395310592</v>
+        <v>8.202928535560044</v>
       </c>
       <c r="D17">
-        <v>4.841898344907143</v>
+        <v>4.929869847830829</v>
       </c>
       <c r="E17">
-        <v>6.797576303694928</v>
+        <v>6.780861802248094</v>
       </c>
       <c r="F17">
-        <v>22.36789459919274</v>
+        <v>21.66174863160798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.31486735929187</v>
+        <v>6.254519547735907</v>
       </c>
       <c r="I17">
-        <v>3.556936202825724</v>
+        <v>3.400295109975683</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>16.27202697158653</v>
+        <v>15.59210413770782</v>
       </c>
       <c r="L17">
-        <v>6.049060709694915</v>
+        <v>12.09791585713067</v>
       </c>
       <c r="M17">
-        <v>11.99062224825965</v>
+        <v>10.90183844651019</v>
       </c>
       <c r="N17">
-        <v>5.570188050320412</v>
+        <v>6.030345491604168</v>
       </c>
       <c r="O17">
-        <v>9.585294165519787</v>
+        <v>12.01386665244591</v>
       </c>
       <c r="P17">
-        <v>13.52598054875589</v>
+        <v>5.770719956828767</v>
       </c>
       <c r="Q17">
-        <v>16.91252469223617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.508081222678163</v>
+      </c>
+      <c r="R17">
+        <v>13.37698591581405</v>
+      </c>
+      <c r="S17">
+        <v>16.34674279764317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.28756295088942</v>
+        <v>13.90580427678566</v>
       </c>
       <c r="C18">
-        <v>7.950805414478442</v>
+        <v>8.013687752944328</v>
       </c>
       <c r="D18">
-        <v>4.99570100771656</v>
+        <v>5.087070233985548</v>
       </c>
       <c r="E18">
-        <v>6.921163017400095</v>
+        <v>6.894534649548141</v>
       </c>
       <c r="F18">
-        <v>22.9368070283003</v>
+        <v>22.19882030884045</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.19417442295602</v>
+        <v>5.119923989462533</v>
       </c>
       <c r="I18">
-        <v>3.563800788728101</v>
+        <v>3.40468504647604</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>16.57541906981161</v>
+        <v>15.86355958950322</v>
       </c>
       <c r="L18">
-        <v>5.994871805840287</v>
+        <v>12.31457537114571</v>
       </c>
       <c r="M18">
-        <v>11.9145881491985</v>
+        <v>11.09251980408359</v>
       </c>
       <c r="N18">
-        <v>5.827091460591513</v>
+        <v>5.968017329303695</v>
       </c>
       <c r="O18">
-        <v>9.849023041684569</v>
+        <v>11.93704792937686</v>
       </c>
       <c r="P18">
-        <v>13.55657165337229</v>
+        <v>6.036723230559559</v>
       </c>
       <c r="Q18">
-        <v>17.25988169796763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.769579699517241</v>
+      </c>
+      <c r="R18">
+        <v>13.39545105016206</v>
+      </c>
+      <c r="S18">
+        <v>16.66912801026072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.46751172060988</v>
+        <v>14.05606942255625</v>
       </c>
       <c r="C19">
-        <v>7.795506105386026</v>
+        <v>7.872964765202638</v>
       </c>
       <c r="D19">
-        <v>5.223175417883115</v>
+        <v>5.319556874291345</v>
       </c>
       <c r="E19">
-        <v>7.175470165159852</v>
+        <v>7.134982335430798</v>
       </c>
       <c r="F19">
-        <v>23.66860077556969</v>
+        <v>22.88072310526812</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.948009029616177</v>
+        <v>3.852515209987136</v>
       </c>
       <c r="I19">
-        <v>3.551359708742177</v>
+        <v>3.394816628092121</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>16.93511038430891</v>
+        <v>16.17731985523591</v>
       </c>
       <c r="L19">
-        <v>5.977233696488658</v>
+        <v>12.55927879313546</v>
       </c>
       <c r="M19">
-        <v>11.94551482074853</v>
+        <v>11.32595234234857</v>
       </c>
       <c r="N19">
-        <v>6.204133448116023</v>
+        <v>5.939479396303978</v>
       </c>
       <c r="O19">
-        <v>10.24156132319809</v>
+        <v>11.96577998139362</v>
       </c>
       <c r="P19">
-        <v>13.57539848653373</v>
+        <v>6.424897306982437</v>
       </c>
       <c r="Q19">
-        <v>17.68519945307809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.15868059620434</v>
+      </c>
+      <c r="R19">
+        <v>13.40061483921368</v>
+      </c>
+      <c r="S19">
+        <v>17.05618818558668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.07998331473866</v>
+        <v>14.6112640907546</v>
       </c>
       <c r="C20">
-        <v>7.695431271254677</v>
+        <v>7.824653532339347</v>
       </c>
       <c r="D20">
-        <v>5.635342430013127</v>
+        <v>5.741070987985802</v>
       </c>
       <c r="E20">
-        <v>7.751634791854194</v>
+        <v>7.686907196551784</v>
       </c>
       <c r="F20">
-        <v>24.88034382266377</v>
+        <v>23.99281401947815</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.820518250033907</v>
+        <v>2.702510128844529</v>
       </c>
       <c r="I20">
-        <v>3.45507932727357</v>
+        <v>3.308702376127908</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>17.47811366202443</v>
+        <v>16.63334481884058</v>
       </c>
       <c r="L20">
-        <v>6.052763685574143</v>
+        <v>12.87909234976063</v>
       </c>
       <c r="M20">
-        <v>12.27482435651182</v>
+        <v>11.7170525004346</v>
       </c>
       <c r="N20">
-        <v>6.872157546630543</v>
+        <v>5.99638849807385</v>
       </c>
       <c r="O20">
-        <v>10.97425784096983</v>
+        <v>12.28912905495006</v>
       </c>
       <c r="P20">
-        <v>13.55385296786039</v>
+        <v>7.110623548335135</v>
       </c>
       <c r="Q20">
-        <v>18.35313200393534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.88449062790564</v>
+      </c>
+      <c r="R20">
+        <v>13.35958490469657</v>
+      </c>
+      <c r="S20">
+        <v>17.6485289289828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.96496068691919</v>
+        <v>15.45525975296969</v>
       </c>
       <c r="C21">
-        <v>7.975732704894986</v>
+        <v>8.194759102643074</v>
       </c>
       <c r="D21">
-        <v>5.865703903976433</v>
+        <v>5.977198756061366</v>
       </c>
       <c r="E21">
-        <v>7.925427697374399</v>
+        <v>7.848882603866227</v>
       </c>
       <c r="F21">
-        <v>25.31190935633089</v>
+        <v>24.35136566215242</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.583208745218721</v>
+        <v>2.477458834497356</v>
       </c>
       <c r="I21">
-        <v>3.281172593917746</v>
+        <v>3.151882569990379</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>17.52200637505162</v>
+        <v>16.62420992665729</v>
       </c>
       <c r="L21">
-        <v>6.101272813530174</v>
+        <v>12.76061180838168</v>
       </c>
       <c r="M21">
-        <v>12.97497784507707</v>
+        <v>11.87446309398057</v>
       </c>
       <c r="N21">
-        <v>7.083203876029789</v>
+        <v>6.041340695253136</v>
       </c>
       <c r="O21">
-        <v>11.42983034850569</v>
+        <v>12.98239150321306</v>
       </c>
       <c r="P21">
-        <v>13.38263818546689</v>
+        <v>7.329267402849037</v>
       </c>
       <c r="Q21">
-        <v>18.50775326154087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.33485785041332</v>
+      </c>
+      <c r="R21">
+        <v>13.19492756485254</v>
+      </c>
+      <c r="S21">
+        <v>17.74957000203254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.5161656008347</v>
+        <v>15.98224698110733</v>
       </c>
       <c r="C22">
-        <v>8.14913411524798</v>
+        <v>8.421266100261281</v>
       </c>
       <c r="D22">
-        <v>5.994350667768996</v>
+        <v>6.109198758801415</v>
       </c>
       <c r="E22">
-        <v>8.009972094958087</v>
+        <v>7.926762560256187</v>
       </c>
       <c r="F22">
-        <v>25.56669635925752</v>
+        <v>24.56195799667567</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.442259928680292</v>
+        <v>2.344371126673984</v>
       </c>
       <c r="I22">
-        <v>3.161921717776595</v>
+        <v>3.041328939523533</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>17.54450773887626</v>
+        <v>16.61407724343404</v>
       </c>
       <c r="L22">
-        <v>6.127785545188956</v>
+        <v>12.67742063671585</v>
       </c>
       <c r="M22">
-        <v>13.40888573857629</v>
+        <v>11.98592757889343</v>
       </c>
       <c r="N22">
-        <v>7.184721101261594</v>
+        <v>6.066389256386231</v>
       </c>
       <c r="O22">
-        <v>11.69359011011232</v>
+        <v>13.41213127652029</v>
       </c>
       <c r="P22">
-        <v>13.27101835879742</v>
+        <v>7.435118146882455</v>
       </c>
       <c r="Q22">
-        <v>18.59908974940927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.59538765056114</v>
+      </c>
+      <c r="R22">
+        <v>13.08836246750067</v>
+      </c>
+      <c r="S22">
+        <v>17.80812076206988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.23750200424522</v>
+        <v>15.71650039869906</v>
       </c>
       <c r="C23">
-        <v>8.043050637215785</v>
+        <v>8.28481150369317</v>
       </c>
       <c r="D23">
-        <v>5.923829578506374</v>
+        <v>6.036889604303268</v>
       </c>
       <c r="E23">
-        <v>7.967318553019695</v>
+        <v>7.887606762774109</v>
       </c>
       <c r="F23">
-        <v>25.45087308588955</v>
+        <v>24.46948445237745</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.516283154931712</v>
+        <v>2.414237410448678</v>
       </c>
       <c r="I23">
-        <v>3.214641096203515</v>
+        <v>3.087328273682085</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>17.54815571946632</v>
+        <v>16.63447028997681</v>
       </c>
       <c r="L23">
-        <v>6.11469870619942</v>
+        <v>12.73258754462412</v>
       </c>
       <c r="M23">
-        <v>13.18007892590604</v>
+        <v>11.93767413516402</v>
       </c>
       <c r="N23">
-        <v>7.126895602211782</v>
+        <v>6.053984166064893</v>
       </c>
       <c r="O23">
-        <v>11.55555159088413</v>
+        <v>13.18552676667387</v>
       </c>
       <c r="P23">
-        <v>13.33172175654873</v>
+        <v>7.374937174525507</v>
       </c>
       <c r="Q23">
-        <v>18.56498595421554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.45908350294011</v>
+      </c>
+      <c r="R23">
+        <v>13.14576280356688</v>
+      </c>
+      <c r="S23">
+        <v>17.79123785122893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.11247010050841</v>
+        <v>14.64111687792254</v>
       </c>
       <c r="C24">
-        <v>7.654803176123616</v>
+        <v>7.780413089433486</v>
       </c>
       <c r="D24">
-        <v>5.654256153756157</v>
+        <v>5.760475074473372</v>
       </c>
       <c r="E24">
-        <v>7.799405190976033</v>
+        <v>7.733213843267659</v>
       </c>
       <c r="F24">
-        <v>24.99010044568539</v>
+        <v>24.09732374266194</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.80457521580533</v>
+        <v>2.686476889996735</v>
       </c>
       <c r="I24">
-        <v>3.437796566872644</v>
+        <v>3.288309351024902</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>17.54445663991347</v>
+        <v>16.69376931373686</v>
       </c>
       <c r="L24">
-        <v>6.062224928155959</v>
+        <v>12.92671382066952</v>
       </c>
       <c r="M24">
-        <v>12.2733831946725</v>
+        <v>11.76126901079953</v>
       </c>
       <c r="N24">
-        <v>6.911366092909518</v>
+        <v>6.004304857032628</v>
       </c>
       <c r="O24">
-        <v>11.01526835531249</v>
+        <v>12.28749407437286</v>
       </c>
       <c r="P24">
-        <v>13.56188926976041</v>
+        <v>7.15086952972413</v>
       </c>
       <c r="Q24">
-        <v>18.42308896059009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.92516289135639</v>
+      </c>
+      <c r="R24">
+        <v>13.36485517003316</v>
+      </c>
+      <c r="S24">
+        <v>17.71419071263161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.79612798835699</v>
+        <v>13.37955879757836</v>
       </c>
       <c r="C25">
-        <v>7.217178933355997</v>
+        <v>7.207849072345452</v>
       </c>
       <c r="D25">
-        <v>5.35202775542518</v>
+        <v>5.450811450070811</v>
       </c>
       <c r="E25">
-        <v>7.613033211322538</v>
+        <v>7.561784742913881</v>
       </c>
       <c r="F25">
-        <v>24.51840850843625</v>
+        <v>23.72008151653185</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.129895995592097</v>
+        <v>2.993867437163956</v>
       </c>
       <c r="I25">
-        <v>3.692147195197477</v>
+        <v>3.518510029304374</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>17.558418612359</v>
+        <v>16.77211511504008</v>
       </c>
       <c r="L25">
-        <v>6.00276491500018</v>
+        <v>13.14156282430024</v>
       </c>
       <c r="M25">
-        <v>11.21298685861557</v>
+        <v>11.63082472460441</v>
       </c>
       <c r="N25">
-        <v>6.674037941265675</v>
+        <v>5.947957740619753</v>
       </c>
       <c r="O25">
-        <v>10.40458512497692</v>
+        <v>11.23721217466226</v>
       </c>
       <c r="P25">
-        <v>13.81527439005248</v>
+        <v>6.905174972804868</v>
       </c>
       <c r="Q25">
-        <v>18.2949510658116</v>
+        <v>10.32084817958593</v>
+      </c>
+      <c r="R25">
+        <v>13.60711640615683</v>
+      </c>
+      <c r="S25">
+        <v>17.65381060077038</v>
       </c>
     </row>
   </sheetData>
